--- a/capiq_data/in_process_data/IQ18671.xlsx
+++ b/capiq_data/in_process_data/IQ18671.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2271B00-4DED-44FD-BC8B-DED47D713A9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4747936-4489-4BE2-9252-B769C7ACC10D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"21dde7ed-7ac3-4977-a754-55c6289bbf79"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"5ff6dcc3-e7b8-4781-a44a-465afde3c97f"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>84.971999999999994</v>
+        <v>15.709</v>
       </c>
       <c r="D2">
-        <v>604.97500000000002</v>
+        <v>218.81</v>
       </c>
       <c r="E2">
-        <v>340.88799999999998</v>
+        <v>174.297</v>
       </c>
       <c r="F2">
-        <v>196.46100000000001</v>
+        <v>62.015999999999998</v>
       </c>
       <c r="G2">
-        <v>1348.1980000000001</v>
+        <v>315.154</v>
       </c>
       <c r="H2">
-        <v>3068.0810000000001</v>
+        <v>981.803</v>
       </c>
       <c r="I2">
-        <v>175.18299999999999</v>
+        <v>72.296000000000006</v>
       </c>
       <c r="J2">
-        <v>851.92700000000002</v>
+        <v>97.680999999999997</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>364.17700000000002</v>
+        <v>142.11600000000001</v>
       </c>
       <c r="O2">
-        <v>1592.335</v>
+        <v>422.89600000000002</v>
       </c>
       <c r="P2">
-        <v>860.91</v>
+        <v>97.98</v>
       </c>
       <c r="Q2">
-        <v>104.977</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>4020</v>
+        <v>2450</v>
       </c>
       <c r="T2">
-        <v>1475.7460000000001</v>
+        <v>558.90700000000004</v>
       </c>
       <c r="U2">
-        <v>529.65</v>
+        <v>19.3</v>
       </c>
       <c r="V2">
-        <v>55.576999999999998</v>
+        <v>34.749000000000002</v>
       </c>
       <c r="W2">
-        <v>-12.76</v>
+        <v>-5.0410000000000004</v>
       </c>
       <c r="X2">
-        <v>89.57</v>
+        <v>-17.588000000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-1.619</v>
+        <v>-2.7549999999999999</v>
       </c>
       <c r="AA2">
-        <v>84.971999999999994</v>
+        <v>15.709</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>106.58</v>
+        <v>22.545000000000002</v>
       </c>
       <c r="D3">
-        <v>696.53</v>
+        <v>224.41</v>
       </c>
       <c r="E3">
-        <v>401.637</v>
+        <v>167.084</v>
       </c>
       <c r="F3">
-        <v>233.01599999999999</v>
+        <v>59.454999999999998</v>
       </c>
       <c r="G3">
-        <v>1346.374</v>
+        <v>305.81200000000001</v>
       </c>
       <c r="H3">
-        <v>3139.8809999999999</v>
+        <v>971.69399999999996</v>
       </c>
       <c r="I3">
-        <v>210.57300000000001</v>
+        <v>65.600999999999999</v>
       </c>
       <c r="J3">
-        <v>758.59699999999998</v>
+        <v>87.384</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-100.622</v>
+        <v>-9.2159999999999993</v>
       </c>
       <c r="N3">
-        <v>381.61099999999999</v>
+        <v>139.53</v>
       </c>
       <c r="O3">
-        <v>1477.213</v>
+        <v>405.55799999999999</v>
       </c>
       <c r="P3">
-        <v>767.69399999999996</v>
+        <v>87.674000000000007</v>
       </c>
       <c r="Q3">
-        <v>-88.637</v>
+        <v>-4.7350000000000003</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1662.6679999999999</v>
+        <v>566.13599999999997</v>
       </c>
       <c r="U3">
-        <v>441.01299999999998</v>
+        <v>14.565</v>
       </c>
       <c r="V3">
-        <v>46.555999999999997</v>
+        <v>31.436</v>
       </c>
       <c r="W3">
-        <v>-12.856</v>
+        <v>-5.9560000000000004</v>
       </c>
       <c r="X3">
-        <v>-103.26300000000001</v>
+        <v>-14.581</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-8.7940000000000005</v>
+        <v>-6.1429999999999998</v>
       </c>
       <c r="AA3">
-        <v>106.58</v>
+        <v>22.545000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>114.15900000000001</v>
+        <v>14.805</v>
       </c>
       <c r="D4">
-        <v>742.10799999999995</v>
+        <v>211.286</v>
       </c>
       <c r="E4">
-        <v>419.84100000000001</v>
+        <v>149.35300000000001</v>
       </c>
       <c r="F4">
-        <v>251.94900000000001</v>
+        <v>48.735999999999997</v>
       </c>
       <c r="G4">
-        <v>1455.6959999999999</v>
+        <v>290.91399999999999</v>
       </c>
       <c r="H4">
-        <v>3292.3470000000002</v>
+        <v>999.12199999999996</v>
       </c>
       <c r="I4">
-        <v>205.357</v>
+        <v>61.792999999999999</v>
       </c>
       <c r="J4">
-        <v>758.86699999999996</v>
+        <v>109.44</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>394.41300000000001</v>
+        <v>133.65100000000001</v>
       </c>
       <c r="O4">
-        <v>1490.2280000000001</v>
+        <v>420.83199999999999</v>
       </c>
       <c r="P4">
-        <v>771.75199999999995</v>
+        <v>109.721</v>
       </c>
       <c r="Q4">
-        <v>49.701999999999998</v>
+        <v>-6.6779999999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1802.1189999999999</v>
+        <v>578.29</v>
       </c>
       <c r="U4">
-        <v>490.71499999999997</v>
+        <v>7.8869999999999996</v>
       </c>
       <c r="V4">
-        <v>99.614000000000004</v>
+        <v>36.975000000000001</v>
       </c>
       <c r="W4">
-        <v>-15.103999999999999</v>
+        <v>-6.2830000000000004</v>
       </c>
       <c r="X4">
-        <v>-10.340999999999999</v>
+        <v>15.926</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-0.26700000000000002</v>
+        <v>-0.05</v>
       </c>
       <c r="AA4">
-        <v>114.15900000000001</v>
+        <v>14.805</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>116.098</v>
+        <v>16.760999999999999</v>
       </c>
       <c r="D5">
-        <v>722.97699999999998</v>
+        <v>242.017</v>
       </c>
       <c r="E5">
-        <v>394.15899999999999</v>
+        <v>185.47499999999999</v>
       </c>
       <c r="F5">
-        <v>258.012</v>
+        <v>56.680999999999997</v>
       </c>
       <c r="G5">
-        <v>1449.354</v>
+        <v>411.76600000000002</v>
       </c>
       <c r="H5">
-        <v>3269.0549999999998</v>
+        <v>1166.461</v>
       </c>
       <c r="I5">
-        <v>192.92400000000001</v>
+        <v>68.838999999999999</v>
       </c>
       <c r="J5">
-        <v>878.38400000000001</v>
+        <v>12.367000000000001</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>402.39400000000001</v>
+        <v>340.88200000000001</v>
       </c>
       <c r="O5">
-        <v>1598.432</v>
+        <v>572.245</v>
       </c>
       <c r="P5">
-        <v>891.17899999999997</v>
+        <v>183.96299999999999</v>
       </c>
       <c r="Q5">
-        <v>-9.4570000000000007</v>
+        <v>26.335000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1670.623</v>
+        <v>594.21600000000001</v>
       </c>
       <c r="U5">
-        <v>481.25799999999998</v>
+        <v>34.222000000000001</v>
       </c>
       <c r="V5">
-        <v>139.297</v>
+        <v>33.58</v>
       </c>
       <c r="W5">
-        <v>-15.138</v>
+        <v>-5.9550000000000001</v>
       </c>
       <c r="X5">
-        <v>-77.869</v>
+        <v>65.575000000000003</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-0.17799999999999999</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="AA5">
-        <v>116.098</v>
+        <v>16.760999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>55.277000000000001</v>
+        <v>14.055999999999999</v>
       </c>
       <c r="D6">
-        <v>707.39</v>
+        <v>265.03899999999999</v>
       </c>
       <c r="E6">
-        <v>355.37200000000001</v>
+        <v>175.16</v>
       </c>
       <c r="F6">
-        <v>211.97</v>
+        <v>56.463000000000001</v>
       </c>
       <c r="G6">
-        <v>1355.62</v>
+        <v>383.661</v>
       </c>
       <c r="H6">
-        <v>3203.8240000000001</v>
+        <v>1138.2719999999999</v>
       </c>
       <c r="I6">
-        <v>184.47200000000001</v>
+        <v>63.558999999999997</v>
       </c>
       <c r="J6">
-        <v>749.25699999999995</v>
+        <v>12.353</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>401.178</v>
+        <v>303.83699999999999</v>
       </c>
       <c r="O6">
-        <v>1524.9970000000001</v>
+        <v>544.97</v>
       </c>
       <c r="P6">
-        <v>763.673</v>
+        <v>170.215</v>
       </c>
       <c r="Q6">
-        <v>-11.842000000000001</v>
+        <v>-3.637</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>4260</v>
+        <v>3000</v>
       </c>
       <c r="T6">
-        <v>1678.827</v>
+        <v>593.30200000000002</v>
       </c>
       <c r="U6">
-        <v>469.416</v>
+        <v>30.585000000000001</v>
       </c>
       <c r="V6">
-        <v>201.892</v>
+        <v>41.872999999999998</v>
       </c>
       <c r="W6">
-        <v>-14.661</v>
+        <v>-5.65</v>
       </c>
       <c r="X6">
-        <v>-137.64599999999999</v>
+        <v>-23.347999999999999</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>4.1000000000000002E-2</v>
+        <v>-6.1539999999999999</v>
       </c>
       <c r="AA6">
-        <v>55.277000000000001</v>
+        <v>14.055999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>114.262</v>
+        <v>16.797999999999998</v>
       </c>
       <c r="D7">
-        <v>711.70399999999995</v>
+        <v>231.822</v>
       </c>
       <c r="E7">
-        <v>386.78800000000001</v>
+        <v>171.626</v>
       </c>
       <c r="F7">
-        <v>250.98</v>
+        <v>55.76</v>
       </c>
       <c r="G7">
-        <v>1469.556</v>
+        <v>384.33699999999999</v>
       </c>
       <c r="H7">
-        <v>3363.4989999999998</v>
+        <v>1130.9100000000001</v>
       </c>
       <c r="I7">
-        <v>224.267</v>
+        <v>65.619</v>
       </c>
       <c r="J7">
-        <v>742.19899999999996</v>
+        <v>12.06</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-7.149</v>
+        <v>-31.164000000000001</v>
       </c>
       <c r="N7">
-        <v>433.36200000000002</v>
+        <v>378.077</v>
       </c>
       <c r="O7">
-        <v>1556.125</v>
+        <v>619.00800000000004</v>
       </c>
       <c r="P7">
-        <v>756.66099999999994</v>
+        <v>239.11099999999999</v>
       </c>
       <c r="Q7">
-        <v>49.942999999999998</v>
+        <v>-1.087</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1807.374</v>
+        <v>511.90199999999999</v>
       </c>
       <c r="U7">
-        <v>519.35900000000004</v>
+        <v>29.498000000000001</v>
       </c>
       <c r="V7">
-        <v>123.544</v>
+        <v>35.543999999999997</v>
       </c>
       <c r="W7">
-        <v>-15.577999999999999</v>
+        <v>-5.9180000000000001</v>
       </c>
       <c r="X7">
-        <v>-22.13</v>
+        <v>-29.481000000000002</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-1.113</v>
+        <v>-1.2769999999999999</v>
       </c>
       <c r="AA7">
-        <v>114.262</v>
+        <v>16.797999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>50.088999999999999</v>
+        <v>20.693999999999999</v>
       </c>
       <c r="D8">
-        <v>684.89400000000001</v>
+        <v>252.70599999999999</v>
       </c>
       <c r="E8">
-        <v>379.26</v>
+        <v>189.60900000000001</v>
       </c>
       <c r="F8">
-        <v>249.28800000000001</v>
+        <v>58.155000000000001</v>
       </c>
       <c r="G8">
-        <v>1451.675</v>
+        <v>402.77499999999998</v>
       </c>
       <c r="H8">
-        <v>3302.7069999999999</v>
+        <v>1161.9659999999999</v>
       </c>
       <c r="I8">
-        <v>194.905</v>
+        <v>70.545000000000002</v>
       </c>
       <c r="J8">
-        <v>742.25199999999995</v>
+        <v>12.071999999999999</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>413.303</v>
+        <v>361.58499999999998</v>
       </c>
       <c r="O8">
-        <v>1509.0630000000001</v>
+        <v>620.57899999999995</v>
       </c>
       <c r="P8">
-        <v>754.82399999999996</v>
+        <v>210.91</v>
       </c>
       <c r="Q8">
-        <v>-57.607999999999997</v>
+        <v>3.9060000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1793.644</v>
+        <v>541.38699999999994</v>
       </c>
       <c r="U8">
-        <v>461.75099999999998</v>
+        <v>33.404000000000003</v>
       </c>
       <c r="V8">
-        <v>61.365000000000002</v>
+        <v>45.183999999999997</v>
       </c>
       <c r="W8">
-        <v>-17.821000000000002</v>
+        <v>-5.3979999999999997</v>
       </c>
       <c r="X8">
-        <v>-24.6</v>
+        <v>-33.595999999999997</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-0.122</v>
+        <v>-1.887</v>
       </c>
       <c r="AA8">
-        <v>50.088999999999999</v>
+        <v>20.693999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>109.459</v>
+        <v>20.352</v>
       </c>
       <c r="D9">
-        <v>661.226</v>
+        <v>271.714</v>
       </c>
       <c r="E9">
-        <v>378.93799999999999</v>
+        <v>187.60900000000001</v>
       </c>
       <c r="F9">
-        <v>217.75</v>
+        <v>64.974000000000004</v>
       </c>
       <c r="G9">
-        <v>1386.8520000000001</v>
+        <v>404.10300000000001</v>
       </c>
       <c r="H9">
-        <v>3362.6550000000002</v>
+        <v>1155.49</v>
       </c>
       <c r="I9">
-        <v>166.56399999999999</v>
+        <v>74.19</v>
       </c>
       <c r="J9">
-        <v>701.16200000000003</v>
+        <v>177.62899999999999</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>382.512</v>
+        <v>175.554</v>
       </c>
       <c r="O9">
-        <v>1461.3720000000001</v>
+        <v>600.34199999999998</v>
       </c>
       <c r="P9">
-        <v>713.73400000000004</v>
+        <v>177.952</v>
       </c>
       <c r="Q9">
-        <v>-59.109000000000002</v>
+        <v>2.6890000000000001</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1901.2829999999999</v>
+        <v>555.14800000000002</v>
       </c>
       <c r="U9">
-        <v>402.642</v>
+        <v>36.093000000000004</v>
       </c>
       <c r="V9">
-        <v>121.57299999999999</v>
+        <v>47.192999999999998</v>
       </c>
       <c r="W9">
-        <v>-17.888000000000002</v>
+        <v>-5.915</v>
       </c>
       <c r="X9">
-        <v>-76.620999999999995</v>
+        <v>-38.332000000000001</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>9.8000000000000004E-2</v>
+        <v>-0.621</v>
       </c>
       <c r="AA9">
-        <v>109.459</v>
+        <v>20.352</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>37.725999999999999</v>
+        <v>15.177</v>
       </c>
       <c r="D10">
-        <v>687.596</v>
+        <v>251.67599999999999</v>
       </c>
       <c r="E10">
-        <v>378.97300000000001</v>
+        <v>193.57300000000001</v>
       </c>
       <c r="F10">
-        <v>191.977</v>
+        <v>53.640999999999998</v>
       </c>
       <c r="G10">
-        <v>1407.3130000000001</v>
+        <v>420.50599999999997</v>
       </c>
       <c r="H10">
-        <v>3437.2910000000002</v>
+        <v>1200.3979999999999</v>
       </c>
       <c r="I10">
-        <v>172.86600000000001</v>
+        <v>75.091999999999999</v>
       </c>
       <c r="J10">
-        <v>686.58799999999997</v>
+        <v>190.285</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>385.00900000000001</v>
+        <v>164.02500000000001</v>
       </c>
       <c r="O10">
-        <v>1505.2829999999999</v>
+        <v>626.06100000000004</v>
       </c>
       <c r="P10">
-        <v>699.28800000000001</v>
+        <v>190.62799999999999</v>
       </c>
       <c r="Q10">
-        <v>75.054000000000002</v>
+        <v>11.691000000000001</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>4304</v>
+        <v>3000</v>
       </c>
       <c r="T10">
-        <v>1932.008</v>
+        <v>574.33699999999999</v>
       </c>
       <c r="U10">
-        <v>477.69600000000003</v>
+        <v>47.783999999999999</v>
       </c>
       <c r="V10">
-        <v>182.28399999999999</v>
+        <v>16.850000000000001</v>
       </c>
       <c r="W10">
-        <v>-17.826000000000001</v>
+        <v>-5.7480000000000002</v>
       </c>
       <c r="X10">
-        <v>-53.942999999999998</v>
+        <v>6.4649999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-25.437000000000001</v>
+        <v>-0.58299999999999996</v>
       </c>
       <c r="AA10">
-        <v>37.725999999999999</v>
+        <v>15.177</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>83.986999999999995</v>
+        <v>21.567</v>
       </c>
       <c r="D11">
-        <v>586.59699999999998</v>
+        <v>266.73899999999998</v>
       </c>
       <c r="E11">
-        <v>407.82299999999998</v>
+        <v>190.97200000000001</v>
       </c>
       <c r="F11">
-        <v>195.911</v>
+        <v>58.542000000000002</v>
       </c>
       <c r="G11">
-        <v>1403.5</v>
+        <v>424.35300000000001</v>
       </c>
       <c r="H11">
-        <v>3450.4450000000002</v>
+        <v>1225.7729999999999</v>
       </c>
       <c r="I11">
-        <v>207.49600000000001</v>
+        <v>81.977000000000004</v>
       </c>
       <c r="J11">
-        <v>686.59199999999998</v>
+        <v>184.40799999999999</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-3.6040000000000001</v>
+        <v>-35.502000000000002</v>
       </c>
       <c r="N11">
-        <v>434.25099999999998</v>
+        <v>182.654</v>
       </c>
       <c r="O11">
-        <v>1548.2049999999999</v>
+        <v>654.09100000000001</v>
       </c>
       <c r="P11">
-        <v>695.82</v>
+        <v>184.57599999999999</v>
       </c>
       <c r="Q11">
-        <v>-42.792000000000002</v>
+        <v>4.9160000000000004</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1902.24</v>
+        <v>571.68200000000002</v>
       </c>
       <c r="U11">
-        <v>434.904</v>
+        <v>40.286999999999999</v>
       </c>
       <c r="V11">
-        <v>98.65</v>
+        <v>48.72</v>
       </c>
       <c r="W11">
-        <v>-17.808</v>
+        <v>-5.9180000000000001</v>
       </c>
       <c r="X11">
-        <v>-84.031999999999996</v>
+        <v>-12.6</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.82099999999999995</v>
+        <v>2.403</v>
       </c>
       <c r="AA11">
-        <v>83.986999999999995</v>
+        <v>21.567</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>82.739000000000004</v>
+        <v>23.734000000000002</v>
       </c>
       <c r="D12">
-        <v>576.84199999999998</v>
+        <v>271.82299999999998</v>
       </c>
       <c r="E12">
-        <v>407.84199999999998</v>
+        <v>193.01</v>
       </c>
       <c r="F12">
-        <v>191.67</v>
+        <v>60.231999999999999</v>
       </c>
       <c r="G12">
-        <v>1281.8779999999999</v>
+        <v>443.76</v>
       </c>
       <c r="H12">
-        <v>3335.9490000000001</v>
+        <v>1249.182</v>
       </c>
       <c r="I12">
-        <v>179.173</v>
+        <v>85.602999999999994</v>
       </c>
       <c r="J12">
-        <v>1067.8520000000001</v>
+        <v>175.18299999999999</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>375.58300000000003</v>
+        <v>182.58799999999999</v>
       </c>
       <c r="O12">
-        <v>1870.556</v>
+        <v>654.78200000000004</v>
       </c>
       <c r="P12">
-        <v>1077.2070000000001</v>
+        <v>175.35900000000001</v>
       </c>
       <c r="Q12">
-        <v>-120.245</v>
+        <v>8.3919999999999995</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1465.393</v>
+        <v>594.4</v>
       </c>
       <c r="U12">
-        <v>314.65899999999999</v>
+        <v>49.993000000000002</v>
       </c>
       <c r="V12">
-        <v>80.203999999999994</v>
+        <v>36.613</v>
       </c>
       <c r="W12">
-        <v>-21.241</v>
+        <v>-5.7460000000000004</v>
       </c>
       <c r="X12">
-        <v>-159.92099999999999</v>
+        <v>-17.824999999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-5.2999999999999999E-2</v>
+        <v>-4.3940000000000001</v>
       </c>
       <c r="AA12">
-        <v>82.739000000000004</v>
+        <v>23.734000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>90.512</v>
+        <v>9.8559999999999999</v>
       </c>
       <c r="D13">
-        <v>591.19600000000003</v>
+        <v>276.55099999999999</v>
       </c>
       <c r="E13">
-        <v>409.20600000000002</v>
+        <v>212.82900000000001</v>
       </c>
       <c r="F13">
-        <v>209.61099999999999</v>
+        <v>56.008000000000003</v>
       </c>
       <c r="G13">
-        <v>1394.7059999999999</v>
+        <v>449.63900000000001</v>
       </c>
       <c r="H13">
-        <v>3470.0650000000001</v>
+        <v>1326.251</v>
       </c>
       <c r="I13">
-        <v>192.89699999999999</v>
+        <v>95.179000000000002</v>
       </c>
       <c r="J13">
-        <v>1060.2819999999999</v>
+        <v>226.28700000000001</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>410.83699999999999</v>
+        <v>200.38</v>
       </c>
       <c r="O13">
-        <v>1892.9159999999999</v>
+        <v>723.26300000000003</v>
       </c>
       <c r="P13">
-        <v>1079.884</v>
+        <v>226.465</v>
       </c>
       <c r="Q13">
-        <v>86.768000000000001</v>
+        <v>-26.108000000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1577.1489999999999</v>
+        <v>602.98800000000006</v>
       </c>
       <c r="U13">
-        <v>401.42700000000002</v>
+        <v>20.789000000000001</v>
       </c>
       <c r="V13">
-        <v>138.667</v>
+        <v>22.454000000000001</v>
       </c>
       <c r="W13">
-        <v>-19.524999999999999</v>
+        <v>-5.7619999999999996</v>
       </c>
       <c r="X13">
-        <v>-25.085000000000001</v>
+        <v>42.877000000000002</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0.44600000000000001</v>
+        <v>-0.55700000000000005</v>
       </c>
       <c r="AA13">
-        <v>90.512</v>
+        <v>9.8559999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>16.788</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>295.12400000000002</v>
       </c>
       <c r="E14">
-        <v>446.86399999999998</v>
+        <v>202.27799999999999</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>63.728000000000002</v>
       </c>
       <c r="G14">
-        <v>1482.915</v>
+        <v>481.36900000000003</v>
       </c>
       <c r="H14">
-        <v>3584.797</v>
+        <v>1387.2909999999999</v>
       </c>
       <c r="I14">
-        <v>208.18100000000001</v>
+        <v>111.431</v>
       </c>
       <c r="J14">
-        <v>1054.31</v>
+        <v>228.38900000000001</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>436.363</v>
+        <v>210.071</v>
       </c>
       <c r="O14">
-        <v>1842.021</v>
+        <v>751.07</v>
       </c>
       <c r="P14">
-        <v>1078.864</v>
+        <v>228.57900000000001</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>0.189</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>4231</v>
+        <v>3000</v>
       </c>
       <c r="T14">
-        <v>1742.7760000000001</v>
+        <v>636.221</v>
       </c>
       <c r="U14">
-        <v>477.23899999999998</v>
+        <v>35.173000000000002</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>42.311</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>-5.7679999999999998</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>-18.731999999999999</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-5.0190000000000001</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>16.788</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>56.582999999999998</v>
+        <v>13.606999999999999</v>
       </c>
       <c r="D15">
-        <v>599.84299999999996</v>
+        <v>322.00900000000001</v>
       </c>
       <c r="E15">
-        <v>427.97899999999998</v>
+        <v>233.84700000000001</v>
       </c>
       <c r="F15">
-        <v>195.59899999999999</v>
+        <v>60.783999999999999</v>
       </c>
       <c r="G15">
-        <v>1477.402</v>
+        <v>487.5</v>
       </c>
       <c r="H15">
-        <v>3558.7280000000001</v>
+        <v>1385.163</v>
       </c>
       <c r="I15">
-        <v>183.46100000000001</v>
+        <v>108.179</v>
       </c>
       <c r="J15">
-        <v>1052.79</v>
+        <v>217.185</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-8.5350000000000001</v>
+        <v>-19.369</v>
       </c>
       <c r="N15">
-        <v>423.19900000000001</v>
+        <v>216.785</v>
       </c>
       <c r="O15">
-        <v>1831.127</v>
+        <v>744.74099999999999</v>
       </c>
       <c r="P15">
-        <v>1077.172</v>
+        <v>217.232</v>
       </c>
       <c r="Q15">
-        <v>46.804000000000002</v>
+        <v>15.348000000000001</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1727.6010000000001</v>
+        <v>640.42200000000003</v>
       </c>
       <c r="U15">
-        <v>524.04300000000001</v>
+        <v>50.521000000000001</v>
       </c>
       <c r="V15">
-        <v>149.173</v>
+        <v>45.185000000000002</v>
       </c>
       <c r="W15">
-        <v>-19.582000000000001</v>
+        <v>-5.9630000000000001</v>
       </c>
       <c r="X15">
-        <v>-80.614000000000004</v>
+        <v>-15.195</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>2.1509999999999998</v>
+        <v>-4.7249999999999996</v>
       </c>
       <c r="AA15">
-        <v>56.582999999999998</v>
+        <v>13.606999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>20.768000000000001</v>
       </c>
       <c r="D16">
-        <v>604.721</v>
+        <v>326.75900000000001</v>
       </c>
       <c r="E16">
-        <v>407.298</v>
+        <v>238.66800000000001</v>
       </c>
       <c r="F16">
-        <v>207.363</v>
+        <v>66.427999999999997</v>
       </c>
       <c r="G16">
-        <v>1525.883</v>
+        <v>482.65800000000002</v>
       </c>
       <c r="H16">
-        <v>3454.5320000000002</v>
+        <v>1381.0809999999999</v>
       </c>
       <c r="I16">
-        <v>185.024</v>
+        <v>118.31399999999999</v>
       </c>
       <c r="J16">
-        <v>685.84500000000003</v>
+        <v>176.48599999999999</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>815.91399999999999</v>
+        <v>237.25</v>
       </c>
       <c r="O16">
-        <v>1829.442</v>
+        <v>726.10500000000002</v>
       </c>
       <c r="P16">
-        <v>1079.7660000000001</v>
+        <v>176.53</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-11.868</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1625.09</v>
+        <v>654.976</v>
       </c>
       <c r="U16">
-        <v>515.11900000000003</v>
+        <v>38.652999999999999</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>40.761000000000003</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>-5.9109999999999996</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>-46.088000000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-0.30499999999999999</v>
       </c>
       <c r="AA16">
-        <v>22.446999999999999</v>
+        <v>20.768000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>72.793999999999997</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="D17">
-        <v>642.41800000000001</v>
+        <v>413.904</v>
       </c>
       <c r="E17">
-        <v>383.32499999999999</v>
+        <v>373.697</v>
       </c>
       <c r="F17">
-        <v>205.446</v>
+        <v>82.608000000000004</v>
       </c>
       <c r="G17">
-        <v>1508.307</v>
+        <v>740.36599999999999</v>
       </c>
       <c r="H17">
-        <v>3393.4659999999999</v>
+        <v>2429.14</v>
       </c>
       <c r="I17">
-        <v>205.809</v>
+        <v>191.36500000000001</v>
       </c>
       <c r="J17">
-        <v>684.10699999999997</v>
+        <v>458.21899999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>812.71</v>
+        <v>817.39099999999996</v>
       </c>
       <c r="O17">
-        <v>1806.1949999999999</v>
+        <v>1765.537</v>
       </c>
       <c r="P17">
-        <v>1070.375</v>
+        <v>953.26599999999996</v>
       </c>
       <c r="Q17">
-        <v>138.001</v>
+        <v>22.164000000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1587.271</v>
+        <v>663.60299999999995</v>
       </c>
       <c r="U17">
-        <v>653.12</v>
+        <v>60.817</v>
       </c>
       <c r="V17">
-        <v>135.39500000000001</v>
+        <v>44.439</v>
       </c>
       <c r="W17">
-        <v>-21.510999999999999</v>
+        <v>-6.1079999999999997</v>
       </c>
       <c r="X17">
-        <v>-40.933999999999997</v>
+        <v>771.10699999999997</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-7.1980000000000004</v>
+        <v>-1.712</v>
       </c>
       <c r="AA17">
-        <v>72.793999999999997</v>
+        <v>0.82699999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>-18.507999999999999</v>
+        <v>19.637</v>
       </c>
       <c r="D18">
-        <v>598.56600000000003</v>
+        <v>451.065</v>
       </c>
       <c r="E18">
-        <v>385.21199999999999</v>
+        <v>300.851</v>
       </c>
       <c r="F18">
-        <v>162.44</v>
+        <v>95.584000000000003</v>
       </c>
       <c r="G18">
-        <v>3348.85</v>
+        <v>747.41</v>
       </c>
       <c r="H18">
-        <v>5223.1030000000001</v>
+        <v>2442.7449999999999</v>
       </c>
       <c r="I18">
-        <v>231.70500000000001</v>
+        <v>202.41</v>
       </c>
       <c r="J18">
-        <v>2223.0349999999999</v>
+        <v>899.58399999999995</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1139.886</v>
+        <v>373.74599999999998</v>
       </c>
       <c r="O18">
-        <v>3734.4679999999998</v>
+        <v>1731.37</v>
       </c>
       <c r="P18">
-        <v>2934.1309999999999</v>
+        <v>944.63099999999997</v>
       </c>
       <c r="Q18">
-        <v>1836.6479999999999</v>
+        <v>-14.427</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>3625</v>
+        <v>3700</v>
       </c>
       <c r="T18">
-        <v>1488.635</v>
+        <v>711.375</v>
       </c>
       <c r="U18">
-        <v>2489.768</v>
+        <v>46.39</v>
       </c>
       <c r="V18">
-        <v>62.067</v>
+        <v>61.17</v>
       </c>
       <c r="W18">
-        <v>-21.274999999999999</v>
+        <v>-7.2930000000000001</v>
       </c>
       <c r="X18">
-        <v>1859.078</v>
+        <v>-23.492000000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-0.29399999999999998</v>
+        <v>-6.1390000000000002</v>
       </c>
       <c r="AA18">
-        <v>-18.507999999999999</v>
+        <v>19.637</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>43.115000000000002</v>
+        <v>24.318999999999999</v>
       </c>
       <c r="D19">
-        <v>692.31299999999999</v>
+        <v>509.96499999999997</v>
       </c>
       <c r="E19">
-        <v>626.96500000000003</v>
+        <v>337.76499999999999</v>
       </c>
       <c r="F19">
-        <v>214.684</v>
+        <v>107.322</v>
       </c>
       <c r="G19">
-        <v>1686.5429999999999</v>
+        <v>841.91099999999994</v>
       </c>
       <c r="H19">
-        <v>9794.759</v>
+        <v>2503.3739999999998</v>
       </c>
       <c r="I19">
-        <v>340.815</v>
+        <v>204.286</v>
       </c>
       <c r="J19">
-        <v>3541.3119999999999</v>
+        <v>820.45600000000002</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-1326.2629999999999</v>
+        <v>-470.99200000000002</v>
       </c>
       <c r="N19">
-        <v>1456.3440000000001</v>
+        <v>391.11599999999999</v>
       </c>
       <c r="O19">
-        <v>6547.4290000000001</v>
+        <v>1631.806</v>
       </c>
       <c r="P19">
-        <v>4013.1210000000001</v>
+        <v>865.50699999999995</v>
       </c>
       <c r="Q19">
-        <v>-2228.3470000000002</v>
+        <v>27.39</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>3247.33</v>
+        <v>871.56799999999998</v>
       </c>
       <c r="U19">
-        <v>261.42099999999999</v>
+        <v>73.78</v>
       </c>
       <c r="V19">
-        <v>45.790999999999997</v>
+        <v>-2.4430000000000001</v>
       </c>
       <c r="W19">
-        <v>-21.73</v>
+        <v>-4.9980000000000002</v>
       </c>
       <c r="X19">
-        <v>-182.64699999999999</v>
+        <v>65.254999999999995</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>3.7130000000000001</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="AA19">
-        <v>43.115000000000002</v>
+        <v>24.318999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>32.058</v>
       </c>
       <c r="D20">
-        <v>718.29</v>
+        <v>502.75400000000002</v>
       </c>
       <c r="E20">
-        <v>638.33900000000006</v>
+        <v>309.70600000000002</v>
       </c>
       <c r="F20">
-        <v>236.23099999999999</v>
+        <v>105.167</v>
       </c>
       <c r="G20">
-        <v>1654.0809999999999</v>
+        <v>857.55799999999999</v>
       </c>
       <c r="H20">
-        <v>9770.8089999999993</v>
+        <v>2525.9270000000001</v>
       </c>
       <c r="I20">
-        <v>342.48200000000003</v>
+        <v>184.43700000000001</v>
       </c>
       <c r="J20">
-        <v>3562.308</v>
+        <v>839.23800000000006</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1368.078</v>
+        <v>400.74700000000001</v>
       </c>
       <c r="O20">
-        <v>6454.8990000000003</v>
+        <v>1633.7139999999999</v>
       </c>
       <c r="P20">
-        <v>3990.308</v>
+        <v>884.28599999999994</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>24.507999999999999</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3315.91</v>
+        <v>892.21299999999997</v>
       </c>
       <c r="U20">
-        <v>207.238</v>
+        <v>98.287999999999997</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>43.722999999999999</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>-6.98</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>12.840999999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-7.8150000000000004</v>
       </c>
       <c r="AA20">
-        <v>52.146999999999998</v>
+        <v>32.058</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>65.391999999999996</v>
+        <v>26.292000000000002</v>
       </c>
       <c r="D21">
-        <v>693.21600000000001</v>
+        <v>506.60500000000002</v>
       </c>
       <c r="E21">
-        <v>618.30100000000004</v>
+        <v>319.65199999999999</v>
       </c>
       <c r="F21">
-        <v>226.745</v>
+        <v>99.611000000000004</v>
       </c>
       <c r="G21">
-        <v>1720.915</v>
+        <v>854.71500000000003</v>
       </c>
       <c r="H21">
-        <v>9675.0640000000003</v>
+        <v>2561.9250000000002</v>
       </c>
       <c r="I21">
-        <v>371.649</v>
+        <v>198.29599999999999</v>
       </c>
       <c r="J21">
-        <v>3558.9639999999999</v>
+        <v>820.61300000000006</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1322.548</v>
+        <v>431.35399999999998</v>
       </c>
       <c r="O21">
-        <v>6400.55</v>
+        <v>1654.3219999999999</v>
       </c>
       <c r="P21">
-        <v>3843.3319999999999</v>
+        <v>879.91600000000005</v>
       </c>
       <c r="Q21">
-        <v>27.251999999999999</v>
+        <v>-50.429000000000002</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>3274.5140000000001</v>
+        <v>907.60299999999995</v>
       </c>
       <c r="U21">
-        <v>234.49</v>
+        <v>47.859000000000002</v>
       </c>
       <c r="V21">
-        <v>183.72</v>
+        <v>52.738999999999997</v>
       </c>
       <c r="W21">
-        <v>-32.531999999999996</v>
+        <v>-7.0140000000000002</v>
       </c>
       <c r="X21">
-        <v>-201.66499999999999</v>
+        <v>-96.236000000000004</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>97.831999999999994</v>
+        <v>5.468</v>
       </c>
       <c r="AA21">
-        <v>65.391999999999996</v>
+        <v>26.292000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>174.25200000000001</v>
+        <v>32.198</v>
       </c>
       <c r="D22">
-        <v>722.61</v>
+        <v>588.17499999999995</v>
       </c>
       <c r="E22">
-        <v>397.91199999999998</v>
+        <v>351.98899999999998</v>
       </c>
       <c r="F22">
-        <v>238.273</v>
+        <v>114.098</v>
       </c>
       <c r="G22">
-        <v>1831.002</v>
+        <v>873.66300000000001</v>
       </c>
       <c r="H22">
-        <v>9597.9539999999997</v>
+        <v>2555.6179999999999</v>
       </c>
       <c r="I22">
-        <v>239.572</v>
+        <v>222.142</v>
       </c>
       <c r="J22">
-        <v>3142.163</v>
+        <v>775.88900000000001</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1616.6849999999999</v>
+        <v>421.91699999999997</v>
       </c>
       <c r="O22">
-        <v>6196.6409999999996</v>
+        <v>1625.3430000000001</v>
       </c>
       <c r="P22">
-        <v>3817.1570000000002</v>
+        <v>833.45299999999997</v>
       </c>
       <c r="Q22">
-        <v>-20.756</v>
+        <v>10.711</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>6963</v>
+        <v>3700</v>
       </c>
       <c r="T22">
-        <v>3401.3130000000001</v>
+        <v>930.27499999999998</v>
       </c>
       <c r="U22">
-        <v>213.73400000000001</v>
+        <v>58.57</v>
       </c>
       <c r="V22">
-        <v>43.786000000000001</v>
+        <v>74.843000000000004</v>
       </c>
       <c r="W22">
-        <v>-32.531999999999996</v>
+        <v>-7.4550000000000001</v>
       </c>
       <c r="X22">
-        <v>-10.327999999999999</v>
+        <v>-51.088999999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-0.26700000000000002</v>
+        <v>1.5920000000000001</v>
       </c>
       <c r="AA22">
-        <v>174.25200000000001</v>
+        <v>32.198</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>228.18600000000001</v>
+        <v>34.375999999999998</v>
       </c>
       <c r="D23">
-        <v>657.21100000000001</v>
+        <v>607.35400000000004</v>
       </c>
       <c r="E23">
-        <v>565.72400000000005</v>
+        <v>376.56400000000002</v>
       </c>
       <c r="F23">
-        <v>242.53399999999999</v>
+        <v>122.453</v>
       </c>
       <c r="G23">
-        <v>1615.3910000000001</v>
+        <v>899.75199999999995</v>
       </c>
       <c r="H23">
-        <v>9438.9680000000008</v>
+        <v>2582.2489999999998</v>
       </c>
       <c r="I23">
-        <v>303.80500000000001</v>
+        <v>208.50899999999999</v>
       </c>
       <c r="J23">
-        <v>3105.3510000000001</v>
+        <v>776.35199999999998</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-331.59500000000003</v>
+        <v>-46.939</v>
       </c>
       <c r="N23">
-        <v>1225.098</v>
+        <v>397.28699999999998</v>
       </c>
       <c r="O23">
-        <v>5744.0969999999998</v>
+        <v>1610.385</v>
       </c>
       <c r="P23">
-        <v>3590.105</v>
+        <v>828.17600000000004</v>
       </c>
       <c r="Q23">
-        <v>38.648000000000003</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3694.8710000000001</v>
+        <v>971.86400000000003</v>
       </c>
       <c r="U23">
-        <v>252.38200000000001</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="V23">
-        <v>172.708</v>
+        <v>36.726999999999997</v>
       </c>
       <c r="W23">
-        <v>-32.540999999999997</v>
+        <v>-7.4720000000000004</v>
       </c>
       <c r="X23">
-        <v>-297.27600000000001</v>
+        <v>-5.6079999999999997</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>1.1910000000000001</v>
+        <v>-2.7919999999999998</v>
       </c>
       <c r="AA23">
-        <v>228.18600000000001</v>
+        <v>34.375999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>-314.82100000000003</v>
+        <v>43.326999999999998</v>
       </c>
       <c r="D24">
-        <v>669.327</v>
+        <v>568.79700000000003</v>
       </c>
       <c r="E24">
-        <v>446.35199999999998</v>
+        <v>372.68400000000003</v>
       </c>
       <c r="F24">
-        <v>248.10400000000001</v>
+        <v>131.38399999999999</v>
       </c>
       <c r="G24">
-        <v>1527.76</v>
+        <v>933.101</v>
       </c>
       <c r="H24">
-        <v>9312.3809999999994</v>
+        <v>2642.1419999999998</v>
       </c>
       <c r="I24">
-        <v>253.06700000000001</v>
+        <v>212.25800000000001</v>
       </c>
       <c r="J24">
-        <v>3019.4780000000001</v>
+        <v>748.27300000000002</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1159.058</v>
+        <v>419.63400000000001</v>
       </c>
       <c r="O24">
-        <v>6006.0349999999999</v>
+        <v>1611.856</v>
       </c>
       <c r="P24">
-        <v>3513.183</v>
+        <v>799.83500000000004</v>
       </c>
       <c r="Q24">
-        <v>-58.720999999999997</v>
+        <v>31.895</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>3306.346</v>
+        <v>1030.2860000000001</v>
       </c>
       <c r="U24">
-        <v>193.661</v>
+        <v>98.995000000000005</v>
       </c>
       <c r="V24">
-        <v>80.141000000000005</v>
+        <v>95.081999999999994</v>
       </c>
       <c r="W24">
-        <v>-34.25</v>
+        <v>-7.7759999999999998</v>
       </c>
       <c r="X24">
-        <v>-97.906999999999996</v>
+        <v>-39.287999999999997</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-0.222</v>
+        <v>-0.27600000000000002</v>
       </c>
       <c r="AA24">
-        <v>-314.82100000000003</v>
+        <v>43.326999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>128.22</v>
+        <v>2.2890000000000001</v>
       </c>
       <c r="D25">
-        <v>654.01</v>
+        <v>607.81799999999998</v>
       </c>
       <c r="E25">
-        <v>441.26600000000002</v>
+        <v>384.721</v>
       </c>
       <c r="F25">
-        <v>238.97200000000001</v>
+        <v>148.22800000000001</v>
       </c>
       <c r="G25">
-        <v>1557.703</v>
+        <v>932.25400000000002</v>
       </c>
       <c r="H25">
-        <v>9396.9439999999995</v>
+        <v>2612.7069999999999</v>
       </c>
       <c r="I25">
-        <v>241.511</v>
+        <v>209.37299999999999</v>
       </c>
       <c r="J25">
-        <v>3048.44</v>
+        <v>733.24800000000005</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1076.8340000000001</v>
+        <v>416.90199999999999</v>
       </c>
       <c r="O25">
-        <v>5945.5110000000004</v>
+        <v>1583.0039999999999</v>
       </c>
       <c r="P25">
-        <v>3449.3319999999999</v>
+        <v>784.99099999999999</v>
       </c>
       <c r="Q25">
-        <v>39.938000000000002</v>
+        <v>-9.42</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>3451.433</v>
+        <v>1029.703</v>
       </c>
       <c r="U25">
-        <v>233.59899999999999</v>
+        <v>89.575000000000003</v>
       </c>
       <c r="V25">
-        <v>201.26499999999999</v>
+        <v>84.049000000000007</v>
       </c>
       <c r="W25">
-        <v>-34.270000000000003</v>
+        <v>-7.8380000000000001</v>
       </c>
       <c r="X25">
-        <v>-116.736</v>
+        <v>-27.143999999999998</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-0.14699999999999999</v>
+        <v>-0.442</v>
       </c>
       <c r="AA25">
-        <v>128.22</v>
+        <v>2.2890000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>602.09</v>
+        <v>62.976999999999997</v>
       </c>
       <c r="D26">
-        <v>696.65499999999997</v>
+        <v>584.53700000000003</v>
       </c>
       <c r="E26">
-        <v>486.03500000000003</v>
+        <v>333.70800000000003</v>
       </c>
       <c r="F26">
-        <v>240.96600000000001</v>
+        <v>148.749</v>
       </c>
       <c r="G26">
-        <v>3306.6179999999999</v>
+        <v>960.85400000000004</v>
       </c>
       <c r="H26">
-        <v>8161.2070000000003</v>
+        <v>2530.3679999999999</v>
       </c>
       <c r="I26">
-        <v>281.87400000000002</v>
+        <v>202.488</v>
       </c>
       <c r="J26">
-        <v>2121.7179999999998</v>
+        <v>681.85900000000004</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1140.1030000000001</v>
+        <v>482.94900000000001</v>
       </c>
       <c r="O26">
-        <v>4218.6030000000001</v>
+        <v>1462.7360000000001</v>
       </c>
       <c r="P26">
-        <v>2369.2620000000002</v>
+        <v>732.59</v>
       </c>
       <c r="Q26">
-        <v>2036.1569999999999</v>
+        <v>59.923999999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>5000</v>
+        <v>3560</v>
       </c>
       <c r="T26">
-        <v>3942.6039999999998</v>
+        <v>1067.6320000000001</v>
       </c>
       <c r="U26">
-        <v>2269.7559999999999</v>
+        <v>149.499</v>
       </c>
       <c r="V26">
-        <v>281.41000000000003</v>
+        <v>160.43600000000001</v>
       </c>
       <c r="W26">
-        <v>-34.292000000000002</v>
+        <v>-8.4960000000000004</v>
       </c>
       <c r="X26">
-        <v>-1068.105</v>
+        <v>-71.484999999999999</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-0.51700000000000002</v>
+        <v>-1.0660000000000001</v>
       </c>
       <c r="AA26">
-        <v>602.09</v>
+        <v>62.976999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>51.213000000000001</v>
+        <v>58.107999999999997</v>
       </c>
       <c r="D27">
-        <v>722.06299999999999</v>
+        <v>589.23800000000006</v>
       </c>
       <c r="E27">
-        <v>508.46</v>
+        <v>350.76900000000001</v>
       </c>
       <c r="F27">
-        <v>277.36200000000002</v>
+        <v>159.78899999999999</v>
       </c>
       <c r="G27">
-        <v>2390.2539999999999</v>
+        <v>981.10299999999995</v>
       </c>
       <c r="H27">
-        <v>7366.4679999999998</v>
+        <v>2609.944</v>
       </c>
       <c r="I27">
-        <v>336.89</v>
+        <v>200.13</v>
       </c>
       <c r="J27">
-        <v>1398.386</v>
+        <v>734.53300000000002</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-751.20899999999995</v>
+        <v>-12.441000000000001</v>
       </c>
       <c r="N27">
-        <v>1207.9469999999999</v>
+        <v>368.69</v>
       </c>
       <c r="O27">
-        <v>3582.4960000000001</v>
+        <v>1525.556</v>
       </c>
       <c r="P27">
-        <v>1712.886</v>
+        <v>741.71400000000006</v>
       </c>
       <c r="Q27">
-        <v>-1015.22</v>
+        <v>-24.483000000000001</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>3783.9720000000002</v>
+        <v>1084.3879999999999</v>
       </c>
       <c r="U27">
-        <v>1254.5360000000001</v>
+        <v>125.01600000000001</v>
       </c>
       <c r="V27">
-        <v>82.584999999999994</v>
+        <v>7.258</v>
       </c>
       <c r="W27">
-        <v>-34.33</v>
+        <v>-8.6280000000000001</v>
       </c>
       <c r="X27">
-        <v>-1021.799</v>
+        <v>-3.673</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>1.742</v>
+        <v>-2.4009999999999998</v>
       </c>
       <c r="AA27">
-        <v>51.213000000000001</v>
+        <v>58.107999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>103.333</v>
+        <v>53.863</v>
       </c>
       <c r="D28">
-        <v>737.25800000000004</v>
+        <v>563.81200000000001</v>
       </c>
       <c r="E28">
-        <v>487.92099999999999</v>
+        <v>346.601</v>
       </c>
       <c r="F28">
-        <v>285.68200000000002</v>
+        <v>153.38200000000001</v>
       </c>
       <c r="G28">
-        <v>2204.4479999999999</v>
+        <v>1028.807</v>
       </c>
       <c r="H28">
-        <v>7291.9889999999996</v>
+        <v>2664.8629999999998</v>
       </c>
       <c r="I28">
-        <v>346.41699999999997</v>
+        <v>176.89500000000001</v>
       </c>
       <c r="J28">
-        <v>1421.4680000000001</v>
+        <v>776.85599999999999</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>983.66200000000003</v>
+        <v>353.53100000000001</v>
       </c>
       <c r="O28">
-        <v>3392.1979999999999</v>
+        <v>1552.8230000000001</v>
       </c>
       <c r="P28">
-        <v>1728.577</v>
+        <v>795.24300000000005</v>
       </c>
       <c r="Q28">
-        <v>-247.59100000000001</v>
+        <v>75.39</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>3899.7910000000002</v>
+        <v>1112.04</v>
       </c>
       <c r="U28">
-        <v>1006.9450000000001</v>
+        <v>200.40600000000001</v>
       </c>
       <c r="V28">
-        <v>-137.04</v>
+        <v>78.376999999999995</v>
       </c>
       <c r="W28">
-        <v>-35.432000000000002</v>
+        <v>-11.558999999999999</v>
       </c>
       <c r="X28">
-        <v>-60.006999999999998</v>
+        <v>19.841000000000001</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-0.28399999999999997</v>
+        <v>-1.1020000000000001</v>
       </c>
       <c r="AA28">
-        <v>103.333</v>
+        <v>53.863</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>118.67</v>
+        <v>59.098999999999997</v>
       </c>
       <c r="D29">
-        <v>754.86599999999999</v>
+        <v>583.98099999999999</v>
       </c>
       <c r="E29">
-        <v>520.07600000000002</v>
+        <v>366.22300000000001</v>
       </c>
       <c r="F29">
-        <v>288.12400000000002</v>
+        <v>152.96199999999999</v>
       </c>
       <c r="G29">
-        <v>2327.3240000000001</v>
+        <v>1011.374</v>
       </c>
       <c r="H29">
-        <v>7523.3</v>
+        <v>2724.9870000000001</v>
       </c>
       <c r="I29">
-        <v>361.93700000000001</v>
+        <v>181.93600000000001</v>
       </c>
       <c r="J29">
-        <v>1407.171</v>
+        <v>679.726</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1103.0170000000001</v>
+        <v>401.26299999999998</v>
       </c>
       <c r="O29">
-        <v>3483.7280000000001</v>
+        <v>1509.383</v>
       </c>
       <c r="P29">
-        <v>1789.529</v>
+        <v>698.5</v>
       </c>
       <c r="Q29">
-        <v>38.393999999999998</v>
+        <v>-99.125</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>4039.5720000000001</v>
+        <v>1215.604</v>
       </c>
       <c r="U29">
-        <v>1045.3389999999999</v>
+        <v>101.28100000000001</v>
       </c>
       <c r="V29">
-        <v>129.29900000000001</v>
+        <v>64.980999999999995</v>
       </c>
       <c r="W29">
-        <v>-35.442999999999998</v>
+        <v>-9.9849999999999994</v>
       </c>
       <c r="X29">
-        <v>3.5390000000000001</v>
+        <v>-121.52800000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0.24199999999999999</v>
+        <v>-0.23</v>
       </c>
       <c r="AA29">
-        <v>118.67</v>
+        <v>59.098999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-218.36600000000001</v>
+        <v>58.62</v>
       </c>
       <c r="D30">
-        <v>857.78899999999999</v>
+        <v>599.15599999999995</v>
       </c>
       <c r="E30">
-        <v>534.32600000000002</v>
+        <v>370.67599999999999</v>
       </c>
       <c r="F30">
-        <v>309.50299999999999</v>
+        <v>156.358</v>
       </c>
       <c r="G30">
-        <v>2477.5630000000001</v>
+        <v>1064.0060000000001</v>
       </c>
       <c r="H30">
-        <v>7750.7719999999999</v>
+        <v>2841.018</v>
       </c>
       <c r="I30">
-        <v>418.53699999999998</v>
+        <v>198.81700000000001</v>
       </c>
       <c r="J30">
-        <v>1415.36</v>
+        <v>707.31100000000004</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1200.925</v>
+        <v>413.48500000000001</v>
       </c>
       <c r="O30">
-        <v>3933.076</v>
+        <v>1508.3520000000001</v>
       </c>
       <c r="P30">
-        <v>1837.3720000000001</v>
+        <v>723.93799999999999</v>
       </c>
       <c r="Q30">
-        <v>91.963999999999999</v>
+        <v>29.27</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>5400</v>
+        <v>4130</v>
       </c>
       <c r="T30">
-        <v>3817.6959999999999</v>
+        <v>1332.6659999999999</v>
       </c>
       <c r="U30">
-        <v>1137.3030000000001</v>
+        <v>130.55099999999999</v>
       </c>
       <c r="V30">
-        <v>229.13499999999999</v>
+        <v>91.926000000000002</v>
       </c>
       <c r="W30">
-        <v>-35.351999999999997</v>
+        <v>-9.859</v>
       </c>
       <c r="X30">
-        <v>-8.6010000000000009</v>
+        <v>-34.31</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-4.29</v>
+        <v>-0.876</v>
       </c>
       <c r="AA30">
-        <v>-218.36600000000001</v>
+        <v>58.62</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>131.76</v>
+        <v>63.261000000000003</v>
       </c>
       <c r="D31">
-        <v>821.62900000000002</v>
+        <v>668.17700000000002</v>
       </c>
       <c r="E31">
-        <v>606.96799999999996</v>
+        <v>420.12099999999998</v>
       </c>
       <c r="F31">
-        <v>307.07900000000001</v>
+        <v>167.411</v>
       </c>
       <c r="G31">
-        <v>2158.7249999999999</v>
+        <v>1143.4469999999999</v>
       </c>
       <c r="H31">
-        <v>7556.34</v>
+        <v>2975.395</v>
       </c>
       <c r="I31">
-        <v>481.726</v>
+        <v>223.001</v>
       </c>
       <c r="J31">
-        <v>1436.8520000000001</v>
+        <v>861.06500000000005</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-381.15899999999999</v>
+        <v>-45.273000000000003</v>
       </c>
       <c r="N31">
-        <v>868.86</v>
+        <v>408.63799999999998</v>
       </c>
       <c r="O31">
-        <v>3612.91</v>
+        <v>1726.075</v>
       </c>
       <c r="P31">
-        <v>1476.068</v>
+        <v>880.35</v>
       </c>
       <c r="Q31">
-        <v>-445.11500000000001</v>
+        <v>4.5789999999999997</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>3943.43</v>
+        <v>1249.32</v>
       </c>
       <c r="U31">
-        <v>692.18799999999999</v>
+        <v>135.13</v>
       </c>
       <c r="V31">
-        <v>121.554</v>
+        <v>18.805</v>
       </c>
       <c r="W31">
-        <v>-35.381999999999998</v>
+        <v>-9.7070000000000007</v>
       </c>
       <c r="X31">
-        <v>-438.28199999999998</v>
+        <v>-1.464</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-0.72499999999999998</v>
+        <v>-3.0649999999999999</v>
       </c>
       <c r="AA31">
-        <v>131.76</v>
+        <v>63.261000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>302.46100000000001</v>
+        <v>61.655000000000001</v>
       </c>
       <c r="D32">
-        <v>853.87400000000002</v>
+        <v>620.75</v>
       </c>
       <c r="E32">
-        <v>571.03200000000004</v>
+        <v>379.76100000000002</v>
       </c>
       <c r="F32">
-        <v>312.35599999999999</v>
+        <v>162.98099999999999</v>
       </c>
       <c r="G32">
-        <v>2283.0700000000002</v>
+        <v>1204.144</v>
       </c>
       <c r="H32">
-        <v>7538.3630000000003</v>
+        <v>3069.1640000000002</v>
       </c>
       <c r="I32">
-        <v>460.44200000000001</v>
+        <v>215.34100000000001</v>
       </c>
       <c r="J32">
-        <v>1406.7239999999999</v>
+        <v>856.08199999999999</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1041.6610000000001</v>
+        <v>429.99200000000002</v>
       </c>
       <c r="O32">
-        <v>3701.0830000000001</v>
+        <v>1760.4829999999999</v>
       </c>
       <c r="P32">
-        <v>1615.405</v>
+        <v>891.01700000000005</v>
       </c>
       <c r="Q32">
-        <v>215.95599999999999</v>
+        <v>33.351999999999997</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3837.28</v>
+        <v>1308.681</v>
       </c>
       <c r="U32">
-        <v>908.14400000000001</v>
+        <v>168.482</v>
       </c>
       <c r="V32">
-        <v>102.303</v>
+        <v>75.674999999999997</v>
       </c>
       <c r="W32">
-        <v>-37.101999999999997</v>
+        <v>-10.769</v>
       </c>
       <c r="X32">
-        <v>-118.58499999999999</v>
+        <v>-1.6279999999999999</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>13.762</v>
       </c>
       <c r="Z32">
-        <v>-1.6930000000000001</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="AA32">
-        <v>302.46100000000001</v>
+        <v>61.655000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>129.745</v>
+        <v>56.174999999999997</v>
       </c>
       <c r="D33">
-        <v>777.74800000000005</v>
+        <v>660.46299999999997</v>
       </c>
       <c r="E33">
-        <v>550.78800000000001</v>
+        <v>394.87900000000002</v>
       </c>
       <c r="F33">
-        <v>285.23700000000002</v>
+        <v>154.18299999999999</v>
       </c>
       <c r="G33">
-        <v>2059.5770000000002</v>
+        <v>1214.57</v>
       </c>
       <c r="H33">
-        <v>7487.1949999999997</v>
+        <v>3021.5889999999999</v>
       </c>
       <c r="I33">
-        <v>474.22899999999998</v>
+        <v>192.21</v>
       </c>
       <c r="J33">
-        <v>1411.605</v>
+        <v>930.89099999999996</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1127.009</v>
+        <v>377.41</v>
       </c>
       <c r="O33">
-        <v>3800.9180000000001</v>
+        <v>1767.828</v>
       </c>
       <c r="P33">
-        <v>1697.7929999999999</v>
+        <v>968.64</v>
       </c>
       <c r="Q33">
-        <v>-266.91800000000001</v>
+        <v>38.728999999999999</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>3686.277</v>
+        <v>1253.761</v>
       </c>
       <c r="U33">
-        <v>641.226</v>
+        <v>207.21100000000001</v>
       </c>
       <c r="V33">
-        <v>153.084</v>
+        <v>67.272999999999996</v>
       </c>
       <c r="W33">
-        <v>-36.438000000000002</v>
+        <v>-10.917999999999999</v>
       </c>
       <c r="X33">
-        <v>-216.06100000000001</v>
+        <v>39.463999999999999</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>13.135</v>
       </c>
       <c r="Z33">
-        <v>-3.6890000000000001</v>
+        <v>-0.39300000000000002</v>
       </c>
       <c r="AA33">
-        <v>129.745</v>
+        <v>56.174999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>129.596</v>
+        <v>13.111000000000001</v>
       </c>
       <c r="D34">
-        <v>921.69899999999996</v>
+        <v>517.72500000000002</v>
       </c>
       <c r="E34">
-        <v>605.71199999999999</v>
+        <v>280.601</v>
       </c>
       <c r="F34">
-        <v>330.084</v>
+        <v>123.099</v>
       </c>
       <c r="G34">
-        <v>1998.421</v>
+        <v>1178.923</v>
       </c>
       <c r="H34">
-        <v>7581.674</v>
+        <v>2872.7170000000001</v>
       </c>
       <c r="I34">
-        <v>522.51599999999996</v>
+        <v>224.333</v>
       </c>
       <c r="J34">
-        <v>1393.421</v>
+        <v>906.06200000000001</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1183.173</v>
+        <v>438.36700000000002</v>
       </c>
       <c r="O34">
-        <v>3822.5659999999998</v>
+        <v>1756.2339999999999</v>
       </c>
       <c r="P34">
-        <v>1705.21</v>
+        <v>932.26400000000001</v>
       </c>
       <c r="Q34">
-        <v>-85.906000000000006</v>
+        <v>46.091999999999999</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>5900</v>
+        <v>4130</v>
       </c>
       <c r="T34">
-        <v>3759.1080000000002</v>
+        <v>1116.4829999999999</v>
       </c>
       <c r="U34">
-        <v>555.32000000000005</v>
+        <v>253.303</v>
       </c>
       <c r="V34">
-        <v>169.22399999999999</v>
+        <v>165.405</v>
       </c>
       <c r="W34">
-        <v>-35.673999999999999</v>
+        <v>-10.927</v>
       </c>
       <c r="X34">
-        <v>-13.598000000000001</v>
+        <v>-61.404000000000003</v>
       </c>
       <c r="Y34">
-        <v>4.4950000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>0.23699999999999999</v>
+        <v>-0.48799999999999999</v>
       </c>
       <c r="AA34">
-        <v>129.596</v>
+        <v>13.111000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>133.56899999999999</v>
+        <v>25.399000000000001</v>
       </c>
       <c r="D35">
-        <v>832.06399999999996</v>
+        <v>486.59100000000001</v>
       </c>
       <c r="E35">
-        <v>603.54200000000003</v>
+        <v>279.41699999999997</v>
       </c>
       <c r="F35">
-        <v>283.88600000000002</v>
+        <v>90.506</v>
       </c>
       <c r="G35">
-        <v>1987.1759999999999</v>
+        <v>1001.579</v>
       </c>
       <c r="H35">
-        <v>7871.0619999999999</v>
+        <v>2685.0889999999999</v>
       </c>
       <c r="I35">
-        <v>482.43299999999999</v>
+        <v>158.292</v>
       </c>
       <c r="J35">
-        <v>1390.3030000000001</v>
+        <v>882.62599999999998</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-35.834000000000003</v>
       </c>
       <c r="N35">
-        <v>1278.191</v>
+        <v>322.89600000000002</v>
       </c>
       <c r="O35">
-        <v>4007.0230000000001</v>
+        <v>1619.4449999999999</v>
       </c>
       <c r="P35">
-        <v>1950.9449999999999</v>
+        <v>918.13400000000001</v>
       </c>
       <c r="Q35">
-        <v>-90.046000000000006</v>
+        <v>-69.403999999999996</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>3864.0390000000002</v>
+        <v>1065.644</v>
       </c>
       <c r="U35">
-        <v>465.274</v>
+        <v>183.899</v>
       </c>
       <c r="V35">
-        <v>54.915999999999997</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="W35">
-        <v>-35.387</v>
+        <v>-10.961</v>
       </c>
       <c r="X35">
-        <v>75.257000000000005</v>
+        <v>-31.254000000000001</v>
       </c>
       <c r="Y35">
-        <v>113.65900000000001</v>
+        <v>9.2520000000000007</v>
       </c>
       <c r="Z35">
-        <v>-1.419</v>
+        <v>-0.29899999999999999</v>
       </c>
       <c r="AA35">
-        <v>133.56899999999999</v>
+        <v>25.399000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>154.19800000000001</v>
+        <v>38.493000000000002</v>
       </c>
       <c r="D36">
-        <v>885.05200000000002</v>
+        <v>445.29899999999998</v>
       </c>
       <c r="E36">
-        <v>624.80799999999999</v>
+        <v>273.38600000000002</v>
       </c>
       <c r="F36">
-        <v>326.01400000000001</v>
+        <v>109.818</v>
       </c>
       <c r="G36">
-        <v>2036.6369999999999</v>
+        <v>912.673</v>
       </c>
       <c r="H36">
-        <v>8094.4139999999998</v>
+        <v>2660.9079999999999</v>
       </c>
       <c r="I36">
-        <v>558.83900000000006</v>
+        <v>126.378</v>
       </c>
       <c r="J36">
-        <v>1394.96</v>
+        <v>810.93700000000001</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1399.981</v>
+        <v>291.892</v>
       </c>
       <c r="O36">
-        <v>4120.0110000000004</v>
+        <v>1507.7739999999999</v>
       </c>
       <c r="P36">
-        <v>2015.3389999999999</v>
+        <v>847.327</v>
       </c>
       <c r="Q36">
-        <v>-67.090999999999994</v>
+        <v>-11.423</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>3974.4029999999998</v>
+        <v>1153.134</v>
       </c>
       <c r="U36">
-        <v>398.18299999999999</v>
+        <v>172.476</v>
       </c>
       <c r="V36">
-        <v>144.37200000000001</v>
+        <v>106.63500000000001</v>
       </c>
       <c r="W36">
-        <v>-38.926000000000002</v>
+        <v>-10.987</v>
       </c>
       <c r="X36">
-        <v>-13.29</v>
+        <v>-86.09</v>
       </c>
       <c r="Y36">
-        <v>110.247</v>
+        <v>9.6189999999999998</v>
       </c>
       <c r="Z36">
-        <v>-0.222</v>
+        <v>-0.21</v>
       </c>
       <c r="AA36">
-        <v>154.19800000000001</v>
+        <v>38.493000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>155.07</v>
+        <v>52.131</v>
       </c>
       <c r="D37">
-        <v>879.74699999999996</v>
+        <v>515.27599999999995</v>
       </c>
       <c r="E37">
-        <v>637.03700000000003</v>
+        <v>293.548</v>
       </c>
       <c r="F37">
-        <v>309.96699999999998</v>
+        <v>134.07900000000001</v>
       </c>
       <c r="G37">
-        <v>1969.752</v>
+        <v>1002.753</v>
       </c>
       <c r="H37">
-        <v>8141.6030000000001</v>
+        <v>2780.1480000000001</v>
       </c>
       <c r="I37">
-        <v>527.05200000000002</v>
+        <v>160.577</v>
       </c>
       <c r="J37">
-        <v>1378.81</v>
+        <v>783.29200000000003</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1421.2429999999999</v>
+        <v>341.87200000000001</v>
       </c>
       <c r="O37">
-        <v>4133.2659999999996</v>
+        <v>1535.876</v>
       </c>
       <c r="P37">
-        <v>2063.14</v>
+        <v>820.81899999999996</v>
       </c>
       <c r="Q37">
-        <v>-80.36</v>
+        <v>87.957999999999998</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>4008.337</v>
+        <v>1244.2719999999999</v>
       </c>
       <c r="U37">
-        <v>317.82299999999998</v>
+        <v>260.43400000000003</v>
       </c>
       <c r="V37">
-        <v>146.35</v>
+        <v>152.29499999999999</v>
       </c>
       <c r="W37">
-        <v>-39.008000000000003</v>
+        <v>-11.358000000000001</v>
       </c>
       <c r="X37">
-        <v>-6.7220000000000004</v>
+        <v>-36.652000000000001</v>
       </c>
       <c r="Y37">
-        <v>119.764</v>
+        <v>9.8059999999999992</v>
       </c>
       <c r="Z37">
-        <v>0.249</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="AA37">
-        <v>155.07</v>
+        <v>52.131</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>90.391000000000005</v>
+        <v>62.344999999999999</v>
       </c>
       <c r="D38">
-        <v>992.56399999999996</v>
+        <v>558.22799999999995</v>
       </c>
       <c r="E38">
-        <v>612.65099999999995</v>
+        <v>294.19200000000001</v>
       </c>
       <c r="F38">
-        <v>339.61099999999999</v>
+        <v>149.459</v>
       </c>
       <c r="G38">
-        <v>2225.1089999999999</v>
+        <v>1032.087</v>
       </c>
       <c r="H38">
-        <v>9860.8629999999994</v>
+        <v>2771.5569999999998</v>
       </c>
       <c r="I38">
-        <v>574.13800000000003</v>
+        <v>170.28700000000001</v>
       </c>
       <c r="J38">
-        <v>2804.0329999999999</v>
+        <v>776.40300000000002</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1408.9960000000001</v>
+        <v>353.26400000000001</v>
       </c>
       <c r="O38">
-        <v>5767.2830000000004</v>
+        <v>1518.239</v>
       </c>
       <c r="P38">
-        <v>3188.08</v>
+        <v>812.71299999999997</v>
       </c>
       <c r="Q38">
-        <v>295.28699999999998</v>
+        <v>48.356999999999999</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>6000</v>
+        <v>3950</v>
       </c>
       <c r="T38">
-        <v>4093.58</v>
+        <v>1253.318</v>
       </c>
       <c r="U38">
-        <v>613.11</v>
+        <v>308.791</v>
       </c>
       <c r="V38">
-        <v>373.73599999999999</v>
+        <v>99.117000000000004</v>
       </c>
       <c r="W38">
-        <v>-38.883000000000003</v>
+        <v>-11.125999999999999</v>
       </c>
       <c r="X38">
-        <v>987.44200000000001</v>
+        <v>-26.786999999999999</v>
       </c>
       <c r="Y38">
-        <v>173.57400000000001</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-0.79300000000000004</v>
+        <v>-0.11899999999999999</v>
       </c>
       <c r="AA38">
-        <v>90.391000000000005</v>
+        <v>62.344999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>107.20399999999999</v>
+        <v>63.308</v>
       </c>
       <c r="D39">
-        <v>738.84500000000003</v>
+        <v>580.27</v>
       </c>
       <c r="E39">
-        <v>518.70299999999997</v>
+        <v>373.67700000000002</v>
       </c>
       <c r="F39">
-        <v>242.71799999999999</v>
+        <v>164.471</v>
       </c>
       <c r="G39">
-        <v>2155.181</v>
+        <v>1063.6310000000001</v>
       </c>
       <c r="H39">
-        <v>9847.6380000000008</v>
+        <v>2756.8879999999999</v>
       </c>
       <c r="I39">
-        <v>573.07500000000005</v>
+        <v>185.61500000000001</v>
       </c>
       <c r="J39">
-        <v>3046.5120000000002</v>
+        <v>791.50300000000004</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-151.87200000000001</v>
+        <v>-14.445</v>
       </c>
       <c r="N39">
-        <v>1192.9259999999999</v>
+        <v>350.94200000000001</v>
       </c>
       <c r="O39">
-        <v>5806.1130000000003</v>
+        <v>1515.7349999999999</v>
       </c>
       <c r="P39">
-        <v>3283.8989999999999</v>
+        <v>805.68399999999997</v>
       </c>
       <c r="Q39">
-        <v>-59.881999999999998</v>
+        <v>-41.473999999999997</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>4041.5250000000001</v>
+        <v>1241.153</v>
       </c>
       <c r="U39">
-        <v>553.22799999999995</v>
+        <v>267.31700000000001</v>
       </c>
       <c r="V39">
-        <v>155.054</v>
+        <v>18.084</v>
       </c>
       <c r="W39">
-        <v>-38.981999999999999</v>
+        <v>-11.401</v>
       </c>
       <c r="X39">
-        <v>51.015999999999998</v>
+        <v>-26.442</v>
       </c>
       <c r="Y39">
-        <v>177.946</v>
+        <v>5.7910000000000004</v>
       </c>
       <c r="Z39">
-        <v>2.2330000000000001</v>
+        <v>1.3859999999999999</v>
       </c>
       <c r="AA39">
-        <v>107.20399999999999</v>
+        <v>63.308</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>85.623999999999995</v>
+        <v>81.751000000000005</v>
       </c>
       <c r="D40">
-        <v>764.04899999999998</v>
+        <v>592.48299999999995</v>
       </c>
       <c r="E40">
-        <v>517.62599999999998</v>
+        <v>357.96300000000002</v>
       </c>
       <c r="F40">
-        <v>233.35900000000001</v>
+        <v>188.167</v>
       </c>
       <c r="G40">
-        <v>2292.4090000000001</v>
+        <v>1081.086</v>
       </c>
       <c r="H40">
-        <v>10170.253000000001</v>
+        <v>2731.07</v>
       </c>
       <c r="I40">
-        <v>523.16</v>
+        <v>162.78299999999999</v>
       </c>
       <c r="J40">
-        <v>3073.5709999999999</v>
+        <v>779.31500000000005</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1420.8030000000001</v>
+        <v>317.14800000000002</v>
       </c>
       <c r="O40">
-        <v>5964.0919999999996</v>
+        <v>1481.6079999999999</v>
       </c>
       <c r="P40">
-        <v>3676.4490000000001</v>
+        <v>793.56200000000001</v>
       </c>
       <c r="Q40">
-        <v>183.46799999999999</v>
+        <v>56.805999999999997</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>4206.1610000000001</v>
+        <v>1249.462</v>
       </c>
       <c r="U40">
-        <v>736.69600000000003</v>
+        <v>324.12299999999999</v>
       </c>
       <c r="V40">
-        <v>52.863</v>
+        <v>116.06</v>
       </c>
       <c r="W40">
-        <v>-40.927</v>
+        <v>-12.728</v>
       </c>
       <c r="X40">
-        <v>324.029</v>
+        <v>-33.137999999999998</v>
       </c>
       <c r="Y40">
-        <v>174.869</v>
+        <v>5.6440000000000001</v>
       </c>
       <c r="Z40">
-        <v>-1.2230000000000001</v>
+        <v>-0.17799999999999999</v>
       </c>
       <c r="AA40">
-        <v>85.623999999999995</v>
+        <v>81.751000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>98.301000000000002</v>
+        <v>93.688999999999993</v>
       </c>
       <c r="D41">
-        <v>746.86800000000005</v>
+        <v>585.03599999999994</v>
       </c>
       <c r="E41">
-        <v>516.16600000000005</v>
+        <v>339.185</v>
       </c>
       <c r="F41">
-        <v>254.05600000000001</v>
+        <v>196.82300000000001</v>
       </c>
       <c r="G41">
-        <v>2227.0120000000002</v>
+        <v>1212.0619999999999</v>
       </c>
       <c r="H41">
-        <v>10231.983</v>
+        <v>2936.66</v>
       </c>
       <c r="I41">
-        <v>465.64400000000001</v>
+        <v>169.64699999999999</v>
       </c>
       <c r="J41">
-        <v>2881.9569999999999</v>
+        <v>749.61699999999996</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1612.739</v>
+        <v>347.74400000000003</v>
       </c>
       <c r="O41">
-        <v>5906.6019999999999</v>
+        <v>1498.6189999999999</v>
       </c>
       <c r="P41">
-        <v>3678.7269999999999</v>
+        <v>765.73400000000004</v>
       </c>
       <c r="Q41">
-        <v>-34.622999999999998</v>
+        <v>100.55</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>4325.3810000000003</v>
+        <v>1438.0409999999999</v>
       </c>
       <c r="U41">
-        <v>702.07299999999998</v>
+        <v>424.673</v>
       </c>
       <c r="V41">
-        <v>253.797</v>
+        <v>141.58799999999999</v>
       </c>
       <c r="W41">
-        <v>-40.927</v>
+        <v>-12.754</v>
       </c>
       <c r="X41">
-        <v>-95.846999999999994</v>
+        <v>-37.927999999999997</v>
       </c>
       <c r="Y41">
-        <v>174.97</v>
+        <v>5.9349999999999996</v>
       </c>
       <c r="Z41">
-        <v>-0.58799999999999997</v>
+        <v>-0.27500000000000002</v>
       </c>
       <c r="AA41">
-        <v>98.301000000000002</v>
+        <v>93.688999999999993</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>84.971999999999994</v>
+      </c>
+      <c r="D42">
+        <v>604.97500000000002</v>
+      </c>
+      <c r="E42">
+        <v>340.88799999999998</v>
+      </c>
+      <c r="F42">
+        <v>196.46100000000001</v>
+      </c>
+      <c r="G42">
+        <v>1348.1980000000001</v>
+      </c>
+      <c r="H42">
+        <v>3068.0810000000001</v>
+      </c>
+      <c r="I42">
+        <v>175.18299999999999</v>
+      </c>
+      <c r="J42">
+        <v>851.92700000000002</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>364.17700000000002</v>
+      </c>
+      <c r="O42">
+        <v>1592.335</v>
+      </c>
+      <c r="P42">
+        <v>860.91</v>
+      </c>
+      <c r="Q42">
+        <v>104.977</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>4020</v>
+      </c>
+      <c r="T42">
+        <v>1475.7460000000001</v>
+      </c>
+      <c r="U42">
+        <v>529.65</v>
+      </c>
+      <c r="V42">
+        <v>55.576999999999998</v>
+      </c>
+      <c r="W42">
+        <v>-12.76</v>
+      </c>
+      <c r="X42">
+        <v>89.57</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-1.619</v>
+      </c>
+      <c r="AA42">
+        <v>84.971999999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>106.58</v>
+      </c>
+      <c r="D43">
+        <v>696.53</v>
+      </c>
+      <c r="E43">
+        <v>401.637</v>
+      </c>
+      <c r="F43">
+        <v>233.01599999999999</v>
+      </c>
+      <c r="G43">
+        <v>1346.374</v>
+      </c>
+      <c r="H43">
+        <v>3139.8809999999999</v>
+      </c>
+      <c r="I43">
+        <v>210.57300000000001</v>
+      </c>
+      <c r="J43">
+        <v>758.59699999999998</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-100.622</v>
+      </c>
+      <c r="N43">
+        <v>381.61099999999999</v>
+      </c>
+      <c r="O43">
+        <v>1477.213</v>
+      </c>
+      <c r="P43">
+        <v>767.69399999999996</v>
+      </c>
+      <c r="Q43">
+        <v>-88.637</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1662.6679999999999</v>
+      </c>
+      <c r="U43">
+        <v>441.01299999999998</v>
+      </c>
+      <c r="V43">
+        <v>46.555999999999997</v>
+      </c>
+      <c r="W43">
+        <v>-12.856</v>
+      </c>
+      <c r="X43">
+        <v>-103.26300000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-8.7940000000000005</v>
+      </c>
+      <c r="AA43">
+        <v>106.58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>114.15900000000001</v>
+      </c>
+      <c r="D44">
+        <v>742.10799999999995</v>
+      </c>
+      <c r="E44">
+        <v>419.84100000000001</v>
+      </c>
+      <c r="F44">
+        <v>251.94900000000001</v>
+      </c>
+      <c r="G44">
+        <v>1455.6959999999999</v>
+      </c>
+      <c r="H44">
+        <v>3292.3470000000002</v>
+      </c>
+      <c r="I44">
+        <v>205.357</v>
+      </c>
+      <c r="J44">
+        <v>758.86699999999996</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>394.41300000000001</v>
+      </c>
+      <c r="O44">
+        <v>1490.2280000000001</v>
+      </c>
+      <c r="P44">
+        <v>771.75199999999995</v>
+      </c>
+      <c r="Q44">
+        <v>49.701999999999998</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1802.1189999999999</v>
+      </c>
+      <c r="U44">
+        <v>490.71499999999997</v>
+      </c>
+      <c r="V44">
+        <v>99.614000000000004</v>
+      </c>
+      <c r="W44">
+        <v>-15.103999999999999</v>
+      </c>
+      <c r="X44">
+        <v>-10.340999999999999</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="AA44">
+        <v>114.15900000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>116.098</v>
+      </c>
+      <c r="D45">
+        <v>722.97699999999998</v>
+      </c>
+      <c r="E45">
+        <v>394.15899999999999</v>
+      </c>
+      <c r="F45">
+        <v>258.012</v>
+      </c>
+      <c r="G45">
+        <v>1449.354</v>
+      </c>
+      <c r="H45">
+        <v>3269.0549999999998</v>
+      </c>
+      <c r="I45">
+        <v>192.92400000000001</v>
+      </c>
+      <c r="J45">
+        <v>878.38400000000001</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>402.39400000000001</v>
+      </c>
+      <c r="O45">
+        <v>1598.432</v>
+      </c>
+      <c r="P45">
+        <v>891.17899999999997</v>
+      </c>
+      <c r="Q45">
+        <v>-9.4570000000000007</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1670.623</v>
+      </c>
+      <c r="U45">
+        <v>481.25799999999998</v>
+      </c>
+      <c r="V45">
+        <v>139.297</v>
+      </c>
+      <c r="W45">
+        <v>-15.138</v>
+      </c>
+      <c r="X45">
+        <v>-77.869</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-0.17799999999999999</v>
+      </c>
+      <c r="AA45">
+        <v>116.098</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>55.277000000000001</v>
+      </c>
+      <c r="D46">
+        <v>707.39</v>
+      </c>
+      <c r="E46">
+        <v>355.37200000000001</v>
+      </c>
+      <c r="F46">
+        <v>211.97</v>
+      </c>
+      <c r="G46">
+        <v>1355.62</v>
+      </c>
+      <c r="H46">
+        <v>3203.8240000000001</v>
+      </c>
+      <c r="I46">
+        <v>184.47200000000001</v>
+      </c>
+      <c r="J46">
+        <v>749.25699999999995</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>401.178</v>
+      </c>
+      <c r="O46">
+        <v>1524.9970000000001</v>
+      </c>
+      <c r="P46">
+        <v>763.673</v>
+      </c>
+      <c r="Q46">
+        <v>-11.842000000000001</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>4260</v>
+      </c>
+      <c r="T46">
+        <v>1678.827</v>
+      </c>
+      <c r="U46">
+        <v>469.416</v>
+      </c>
+      <c r="V46">
+        <v>201.892</v>
+      </c>
+      <c r="W46">
+        <v>-14.661</v>
+      </c>
+      <c r="X46">
+        <v>-137.64599999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="AA46">
+        <v>55.277000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>114.262</v>
+      </c>
+      <c r="D47">
+        <v>711.70399999999995</v>
+      </c>
+      <c r="E47">
+        <v>386.78800000000001</v>
+      </c>
+      <c r="F47">
+        <v>250.98</v>
+      </c>
+      <c r="G47">
+        <v>1469.556</v>
+      </c>
+      <c r="H47">
+        <v>3363.4989999999998</v>
+      </c>
+      <c r="I47">
+        <v>224.267</v>
+      </c>
+      <c r="J47">
+        <v>742.19899999999996</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-7.149</v>
+      </c>
+      <c r="N47">
+        <v>433.36200000000002</v>
+      </c>
+      <c r="O47">
+        <v>1556.125</v>
+      </c>
+      <c r="P47">
+        <v>756.66099999999994</v>
+      </c>
+      <c r="Q47">
+        <v>49.942999999999998</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1807.374</v>
+      </c>
+      <c r="U47">
+        <v>519.35900000000004</v>
+      </c>
+      <c r="V47">
+        <v>123.544</v>
+      </c>
+      <c r="W47">
+        <v>-15.577999999999999</v>
+      </c>
+      <c r="X47">
+        <v>-22.13</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-1.113</v>
+      </c>
+      <c r="AA47">
+        <v>114.262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>50.088999999999999</v>
+      </c>
+      <c r="D48">
+        <v>684.89400000000001</v>
+      </c>
+      <c r="E48">
+        <v>379.26</v>
+      </c>
+      <c r="F48">
+        <v>249.28800000000001</v>
+      </c>
+      <c r="G48">
+        <v>1451.675</v>
+      </c>
+      <c r="H48">
+        <v>3302.7069999999999</v>
+      </c>
+      <c r="I48">
+        <v>194.905</v>
+      </c>
+      <c r="J48">
+        <v>742.25199999999995</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>413.303</v>
+      </c>
+      <c r="O48">
+        <v>1509.0630000000001</v>
+      </c>
+      <c r="P48">
+        <v>754.82399999999996</v>
+      </c>
+      <c r="Q48">
+        <v>-57.607999999999997</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1793.644</v>
+      </c>
+      <c r="U48">
+        <v>461.75099999999998</v>
+      </c>
+      <c r="V48">
+        <v>61.365000000000002</v>
+      </c>
+      <c r="W48">
+        <v>-17.821000000000002</v>
+      </c>
+      <c r="X48">
+        <v>-24.6</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-0.122</v>
+      </c>
+      <c r="AA48">
+        <v>50.088999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>109.459</v>
+      </c>
+      <c r="D49">
+        <v>661.226</v>
+      </c>
+      <c r="E49">
+        <v>378.93799999999999</v>
+      </c>
+      <c r="F49">
+        <v>217.75</v>
+      </c>
+      <c r="G49">
+        <v>1386.8520000000001</v>
+      </c>
+      <c r="H49">
+        <v>3362.6550000000002</v>
+      </c>
+      <c r="I49">
+        <v>166.56399999999999</v>
+      </c>
+      <c r="J49">
+        <v>701.16200000000003</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>382.512</v>
+      </c>
+      <c r="O49">
+        <v>1461.3720000000001</v>
+      </c>
+      <c r="P49">
+        <v>713.73400000000004</v>
+      </c>
+      <c r="Q49">
+        <v>-59.109000000000002</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1901.2829999999999</v>
+      </c>
+      <c r="U49">
+        <v>402.642</v>
+      </c>
+      <c r="V49">
+        <v>121.57299999999999</v>
+      </c>
+      <c r="W49">
+        <v>-17.888000000000002</v>
+      </c>
+      <c r="X49">
+        <v>-76.620999999999995</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="AA49">
+        <v>109.459</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>37.725999999999999</v>
+      </c>
+      <c r="D50">
+        <v>687.596</v>
+      </c>
+      <c r="E50">
+        <v>378.97300000000001</v>
+      </c>
+      <c r="F50">
+        <v>191.977</v>
+      </c>
+      <c r="G50">
+        <v>1407.3130000000001</v>
+      </c>
+      <c r="H50">
+        <v>3437.2910000000002</v>
+      </c>
+      <c r="I50">
+        <v>172.86600000000001</v>
+      </c>
+      <c r="J50">
+        <v>686.58799999999997</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>385.00900000000001</v>
+      </c>
+      <c r="O50">
+        <v>1505.2829999999999</v>
+      </c>
+      <c r="P50">
+        <v>699.28800000000001</v>
+      </c>
+      <c r="Q50">
+        <v>75.054000000000002</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>4304</v>
+      </c>
+      <c r="T50">
+        <v>1932.008</v>
+      </c>
+      <c r="U50">
+        <v>477.69600000000003</v>
+      </c>
+      <c r="V50">
+        <v>182.28399999999999</v>
+      </c>
+      <c r="W50">
+        <v>-17.826000000000001</v>
+      </c>
+      <c r="X50">
+        <v>-53.942999999999998</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-25.437000000000001</v>
+      </c>
+      <c r="AA50">
+        <v>37.725999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>83.986999999999995</v>
+      </c>
+      <c r="D51">
+        <v>586.59699999999998</v>
+      </c>
+      <c r="E51">
+        <v>407.82299999999998</v>
+      </c>
+      <c r="F51">
+        <v>195.911</v>
+      </c>
+      <c r="G51">
+        <v>1403.5</v>
+      </c>
+      <c r="H51">
+        <v>3450.4450000000002</v>
+      </c>
+      <c r="I51">
+        <v>207.49600000000001</v>
+      </c>
+      <c r="J51">
+        <v>686.59199999999998</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-3.6040000000000001</v>
+      </c>
+      <c r="N51">
+        <v>434.25099999999998</v>
+      </c>
+      <c r="O51">
+        <v>1548.2049999999999</v>
+      </c>
+      <c r="P51">
+        <v>695.82</v>
+      </c>
+      <c r="Q51">
+        <v>-42.792000000000002</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1902.24</v>
+      </c>
+      <c r="U51">
+        <v>434.904</v>
+      </c>
+      <c r="V51">
+        <v>98.65</v>
+      </c>
+      <c r="W51">
+        <v>-17.808</v>
+      </c>
+      <c r="X51">
+        <v>-84.031999999999996</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="AA51">
+        <v>83.986999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>82.739000000000004</v>
+      </c>
+      <c r="D52">
+        <v>576.84199999999998</v>
+      </c>
+      <c r="E52">
+        <v>407.84199999999998</v>
+      </c>
+      <c r="F52">
+        <v>191.67</v>
+      </c>
+      <c r="G52">
+        <v>1281.8779999999999</v>
+      </c>
+      <c r="H52">
+        <v>3335.9490000000001</v>
+      </c>
+      <c r="I52">
+        <v>179.173</v>
+      </c>
+      <c r="J52">
+        <v>1067.8520000000001</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>375.58300000000003</v>
+      </c>
+      <c r="O52">
+        <v>1870.556</v>
+      </c>
+      <c r="P52">
+        <v>1077.2070000000001</v>
+      </c>
+      <c r="Q52">
+        <v>-120.245</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1465.393</v>
+      </c>
+      <c r="U52">
+        <v>314.65899999999999</v>
+      </c>
+      <c r="V52">
+        <v>80.203999999999994</v>
+      </c>
+      <c r="W52">
+        <v>-21.241</v>
+      </c>
+      <c r="X52">
+        <v>-159.92099999999999</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="AA52">
+        <v>82.739000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>90.512</v>
+      </c>
+      <c r="D53">
+        <v>591.19600000000003</v>
+      </c>
+      <c r="E53">
+        <v>409.20600000000002</v>
+      </c>
+      <c r="F53">
+        <v>209.61099999999999</v>
+      </c>
+      <c r="G53">
+        <v>1394.7059999999999</v>
+      </c>
+      <c r="H53">
+        <v>3470.0650000000001</v>
+      </c>
+      <c r="I53">
+        <v>192.89699999999999</v>
+      </c>
+      <c r="J53">
+        <v>1060.2819999999999</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>410.83699999999999</v>
+      </c>
+      <c r="O53">
+        <v>1892.9159999999999</v>
+      </c>
+      <c r="P53">
+        <v>1079.884</v>
+      </c>
+      <c r="Q53">
+        <v>86.768000000000001</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1577.1489999999999</v>
+      </c>
+      <c r="U53">
+        <v>401.42700000000002</v>
+      </c>
+      <c r="V53">
+        <v>138.667</v>
+      </c>
+      <c r="W53">
+        <v>-19.524999999999999</v>
+      </c>
+      <c r="X53">
+        <v>-25.085000000000001</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="AA53">
+        <v>90.512</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>446.86399999999998</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1482.915</v>
+      </c>
+      <c r="H54">
+        <v>3584.797</v>
+      </c>
+      <c r="I54">
+        <v>208.18100000000001</v>
+      </c>
+      <c r="J54">
+        <v>1054.31</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>436.363</v>
+      </c>
+      <c r="O54">
+        <v>1842.021</v>
+      </c>
+      <c r="P54">
+        <v>1078.864</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>4231</v>
+      </c>
+      <c r="T54">
+        <v>1742.7760000000001</v>
+      </c>
+      <c r="U54">
+        <v>477.23899999999998</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>56.582999999999998</v>
+      </c>
+      <c r="D55">
+        <v>599.84299999999996</v>
+      </c>
+      <c r="E55">
+        <v>427.97899999999998</v>
+      </c>
+      <c r="F55">
+        <v>195.59899999999999</v>
+      </c>
+      <c r="G55">
+        <v>1477.402</v>
+      </c>
+      <c r="H55">
+        <v>3558.7280000000001</v>
+      </c>
+      <c r="I55">
+        <v>183.46100000000001</v>
+      </c>
+      <c r="J55">
+        <v>1052.79</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-8.5350000000000001</v>
+      </c>
+      <c r="N55">
+        <v>423.19900000000001</v>
+      </c>
+      <c r="O55">
+        <v>1831.127</v>
+      </c>
+      <c r="P55">
+        <v>1077.172</v>
+      </c>
+      <c r="Q55">
+        <v>46.804000000000002</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1727.6010000000001</v>
+      </c>
+      <c r="U55">
+        <v>524.04300000000001</v>
+      </c>
+      <c r="V55">
+        <v>149.173</v>
+      </c>
+      <c r="W55">
+        <v>-19.582000000000001</v>
+      </c>
+      <c r="X55">
+        <v>-80.614000000000004</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>2.1509999999999998</v>
+      </c>
+      <c r="AA55">
+        <v>56.582999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>604.721</v>
+      </c>
+      <c r="E56">
+        <v>407.298</v>
+      </c>
+      <c r="F56">
+        <v>207.363</v>
+      </c>
+      <c r="G56">
+        <v>1525.883</v>
+      </c>
+      <c r="H56">
+        <v>3454.5320000000002</v>
+      </c>
+      <c r="I56">
+        <v>185.024</v>
+      </c>
+      <c r="J56">
+        <v>685.84500000000003</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>815.91399999999999</v>
+      </c>
+      <c r="O56">
+        <v>1829.442</v>
+      </c>
+      <c r="P56">
+        <v>1079.7660000000001</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1625.09</v>
+      </c>
+      <c r="U56">
+        <v>515.11900000000003</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>22.446999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>72.793999999999997</v>
+      </c>
+      <c r="D57">
+        <v>642.41800000000001</v>
+      </c>
+      <c r="E57">
+        <v>383.32499999999999</v>
+      </c>
+      <c r="F57">
+        <v>205.446</v>
+      </c>
+      <c r="G57">
+        <v>1508.307</v>
+      </c>
+      <c r="H57">
+        <v>3393.4659999999999</v>
+      </c>
+      <c r="I57">
+        <v>205.809</v>
+      </c>
+      <c r="J57">
+        <v>684.10699999999997</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>812.71</v>
+      </c>
+      <c r="O57">
+        <v>1806.1949999999999</v>
+      </c>
+      <c r="P57">
+        <v>1070.375</v>
+      </c>
+      <c r="Q57">
+        <v>138.001</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1587.271</v>
+      </c>
+      <c r="U57">
+        <v>653.12</v>
+      </c>
+      <c r="V57">
+        <v>135.39500000000001</v>
+      </c>
+      <c r="W57">
+        <v>-21.510999999999999</v>
+      </c>
+      <c r="X57">
+        <v>-40.933999999999997</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-7.1980000000000004</v>
+      </c>
+      <c r="AA57">
+        <v>72.793999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>-18.507999999999999</v>
+      </c>
+      <c r="D58">
+        <v>598.56600000000003</v>
+      </c>
+      <c r="E58">
+        <v>385.21199999999999</v>
+      </c>
+      <c r="F58">
+        <v>162.44</v>
+      </c>
+      <c r="G58">
+        <v>3348.85</v>
+      </c>
+      <c r="H58">
+        <v>5223.1030000000001</v>
+      </c>
+      <c r="I58">
+        <v>231.70500000000001</v>
+      </c>
+      <c r="J58">
+        <v>2223.0349999999999</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1139.886</v>
+      </c>
+      <c r="O58">
+        <v>3734.4679999999998</v>
+      </c>
+      <c r="P58">
+        <v>2934.1309999999999</v>
+      </c>
+      <c r="Q58">
+        <v>1836.6479999999999</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>3625</v>
+      </c>
+      <c r="T58">
+        <v>1488.635</v>
+      </c>
+      <c r="U58">
+        <v>2489.768</v>
+      </c>
+      <c r="V58">
+        <v>62.067</v>
+      </c>
+      <c r="W58">
+        <v>-21.274999999999999</v>
+      </c>
+      <c r="X58">
+        <v>1859.078</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-0.29399999999999998</v>
+      </c>
+      <c r="AA58">
+        <v>-18.507999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>43.115000000000002</v>
+      </c>
+      <c r="D59">
+        <v>692.31299999999999</v>
+      </c>
+      <c r="E59">
+        <v>626.96500000000003</v>
+      </c>
+      <c r="F59">
+        <v>214.684</v>
+      </c>
+      <c r="G59">
+        <v>1686.5429999999999</v>
+      </c>
+      <c r="H59">
+        <v>9794.759</v>
+      </c>
+      <c r="I59">
+        <v>340.815</v>
+      </c>
+      <c r="J59">
+        <v>3541.3119999999999</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-1326.2629999999999</v>
+      </c>
+      <c r="N59">
+        <v>1456.3440000000001</v>
+      </c>
+      <c r="O59">
+        <v>6547.4290000000001</v>
+      </c>
+      <c r="P59">
+        <v>4013.1210000000001</v>
+      </c>
+      <c r="Q59">
+        <v>-2228.3470000000002</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>3247.33</v>
+      </c>
+      <c r="U59">
+        <v>261.42099999999999</v>
+      </c>
+      <c r="V59">
+        <v>45.790999999999997</v>
+      </c>
+      <c r="W59">
+        <v>-21.73</v>
+      </c>
+      <c r="X59">
+        <v>-182.64699999999999</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>3.7130000000000001</v>
+      </c>
+      <c r="AA59">
+        <v>43.115000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>718.29</v>
+      </c>
+      <c r="E60">
+        <v>638.33900000000006</v>
+      </c>
+      <c r="F60">
+        <v>236.23099999999999</v>
+      </c>
+      <c r="G60">
+        <v>1654.0809999999999</v>
+      </c>
+      <c r="H60">
+        <v>9770.8089999999993</v>
+      </c>
+      <c r="I60">
+        <v>342.48200000000003</v>
+      </c>
+      <c r="J60">
+        <v>3562.308</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1368.078</v>
+      </c>
+      <c r="O60">
+        <v>6454.8990000000003</v>
+      </c>
+      <c r="P60">
+        <v>3990.308</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>3315.91</v>
+      </c>
+      <c r="U60">
+        <v>207.238</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>52.146999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>65.391999999999996</v>
+      </c>
+      <c r="D61">
+        <v>693.21600000000001</v>
+      </c>
+      <c r="E61">
+        <v>618.30100000000004</v>
+      </c>
+      <c r="F61">
+        <v>226.745</v>
+      </c>
+      <c r="G61">
+        <v>1720.915</v>
+      </c>
+      <c r="H61">
+        <v>9675.0640000000003</v>
+      </c>
+      <c r="I61">
+        <v>371.649</v>
+      </c>
+      <c r="J61">
+        <v>3558.9639999999999</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1322.548</v>
+      </c>
+      <c r="O61">
+        <v>6400.55</v>
+      </c>
+      <c r="P61">
+        <v>3843.3319999999999</v>
+      </c>
+      <c r="Q61">
+        <v>27.251999999999999</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>3274.5140000000001</v>
+      </c>
+      <c r="U61">
+        <v>234.49</v>
+      </c>
+      <c r="V61">
+        <v>183.72</v>
+      </c>
+      <c r="W61">
+        <v>-32.531999999999996</v>
+      </c>
+      <c r="X61">
+        <v>-201.66499999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>97.831999999999994</v>
+      </c>
+      <c r="AA61">
+        <v>65.391999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>174.25200000000001</v>
+      </c>
+      <c r="D62">
+        <v>722.61</v>
+      </c>
+      <c r="E62">
+        <v>397.91199999999998</v>
+      </c>
+      <c r="F62">
+        <v>238.273</v>
+      </c>
+      <c r="G62">
+        <v>1831.002</v>
+      </c>
+      <c r="H62">
+        <v>9597.9539999999997</v>
+      </c>
+      <c r="I62">
+        <v>239.572</v>
+      </c>
+      <c r="J62">
+        <v>3142.163</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1616.6849999999999</v>
+      </c>
+      <c r="O62">
+        <v>6196.6409999999996</v>
+      </c>
+      <c r="P62">
+        <v>3817.1570000000002</v>
+      </c>
+      <c r="Q62">
+        <v>-20.756</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>6963</v>
+      </c>
+      <c r="T62">
+        <v>3401.3130000000001</v>
+      </c>
+      <c r="U62">
+        <v>213.73400000000001</v>
+      </c>
+      <c r="V62">
+        <v>43.786000000000001</v>
+      </c>
+      <c r="W62">
+        <v>-32.531999999999996</v>
+      </c>
+      <c r="X62">
+        <v>-10.327999999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="AA62">
+        <v>174.25200000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>228.18600000000001</v>
+      </c>
+      <c r="D63">
+        <v>657.21100000000001</v>
+      </c>
+      <c r="E63">
+        <v>565.72400000000005</v>
+      </c>
+      <c r="F63">
+        <v>242.53399999999999</v>
+      </c>
+      <c r="G63">
+        <v>1615.3910000000001</v>
+      </c>
+      <c r="H63">
+        <v>9438.9680000000008</v>
+      </c>
+      <c r="I63">
+        <v>303.80500000000001</v>
+      </c>
+      <c r="J63">
+        <v>3105.3510000000001</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-331.59500000000003</v>
+      </c>
+      <c r="N63">
+        <v>1225.098</v>
+      </c>
+      <c r="O63">
+        <v>5744.0969999999998</v>
+      </c>
+      <c r="P63">
+        <v>3590.105</v>
+      </c>
+      <c r="Q63">
+        <v>38.648000000000003</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3694.8710000000001</v>
+      </c>
+      <c r="U63">
+        <v>252.38200000000001</v>
+      </c>
+      <c r="V63">
+        <v>172.708</v>
+      </c>
+      <c r="W63">
+        <v>-32.540999999999997</v>
+      </c>
+      <c r="X63">
+        <v>-297.27600000000001</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="AA63">
+        <v>228.18600000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>-314.82100000000003</v>
+      </c>
+      <c r="D64">
+        <v>669.327</v>
+      </c>
+      <c r="E64">
+        <v>446.35199999999998</v>
+      </c>
+      <c r="F64">
+        <v>248.10400000000001</v>
+      </c>
+      <c r="G64">
+        <v>1527.76</v>
+      </c>
+      <c r="H64">
+        <v>9312.3809999999994</v>
+      </c>
+      <c r="I64">
+        <v>253.06700000000001</v>
+      </c>
+      <c r="J64">
+        <v>3019.4780000000001</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1159.058</v>
+      </c>
+      <c r="O64">
+        <v>6006.0349999999999</v>
+      </c>
+      <c r="P64">
+        <v>3513.183</v>
+      </c>
+      <c r="Q64">
+        <v>-58.720999999999997</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>3306.346</v>
+      </c>
+      <c r="U64">
+        <v>193.661</v>
+      </c>
+      <c r="V64">
+        <v>80.141000000000005</v>
+      </c>
+      <c r="W64">
+        <v>-34.25</v>
+      </c>
+      <c r="X64">
+        <v>-97.906999999999996</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-0.222</v>
+      </c>
+      <c r="AA64">
+        <v>-314.82100000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>128.22</v>
+      </c>
+      <c r="D65">
+        <v>654.01</v>
+      </c>
+      <c r="E65">
+        <v>441.26600000000002</v>
+      </c>
+      <c r="F65">
+        <v>238.97200000000001</v>
+      </c>
+      <c r="G65">
+        <v>1557.703</v>
+      </c>
+      <c r="H65">
+        <v>9396.9439999999995</v>
+      </c>
+      <c r="I65">
+        <v>241.511</v>
+      </c>
+      <c r="J65">
+        <v>3048.44</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1076.8340000000001</v>
+      </c>
+      <c r="O65">
+        <v>5945.5110000000004</v>
+      </c>
+      <c r="P65">
+        <v>3449.3319999999999</v>
+      </c>
+      <c r="Q65">
+        <v>39.938000000000002</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>3451.433</v>
+      </c>
+      <c r="U65">
+        <v>233.59899999999999</v>
+      </c>
+      <c r="V65">
+        <v>201.26499999999999</v>
+      </c>
+      <c r="W65">
+        <v>-34.270000000000003</v>
+      </c>
+      <c r="X65">
+        <v>-116.736</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="AA65">
+        <v>128.22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>602.09</v>
+      </c>
+      <c r="D66">
+        <v>696.65499999999997</v>
+      </c>
+      <c r="E66">
+        <v>486.03500000000003</v>
+      </c>
+      <c r="F66">
+        <v>240.96600000000001</v>
+      </c>
+      <c r="G66">
+        <v>3306.6179999999999</v>
+      </c>
+      <c r="H66">
+        <v>8161.2070000000003</v>
+      </c>
+      <c r="I66">
+        <v>281.87400000000002</v>
+      </c>
+      <c r="J66">
+        <v>2121.7179999999998</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1140.1030000000001</v>
+      </c>
+      <c r="O66">
+        <v>4218.6030000000001</v>
+      </c>
+      <c r="P66">
+        <v>2369.2620000000002</v>
+      </c>
+      <c r="Q66">
+        <v>2036.1569999999999</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>5000</v>
+      </c>
+      <c r="T66">
+        <v>3942.6039999999998</v>
+      </c>
+      <c r="U66">
+        <v>2269.7559999999999</v>
+      </c>
+      <c r="V66">
+        <v>281.41000000000003</v>
+      </c>
+      <c r="W66">
+        <v>-34.292000000000002</v>
+      </c>
+      <c r="X66">
+        <v>-1068.105</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-0.51700000000000002</v>
+      </c>
+      <c r="AA66">
+        <v>602.09</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>51.213000000000001</v>
+      </c>
+      <c r="D67">
+        <v>722.06299999999999</v>
+      </c>
+      <c r="E67">
+        <v>508.46</v>
+      </c>
+      <c r="F67">
+        <v>277.36200000000002</v>
+      </c>
+      <c r="G67">
+        <v>2390.2539999999999</v>
+      </c>
+      <c r="H67">
+        <v>7366.4679999999998</v>
+      </c>
+      <c r="I67">
+        <v>336.89</v>
+      </c>
+      <c r="J67">
+        <v>1398.386</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-751.20899999999995</v>
+      </c>
+      <c r="N67">
+        <v>1207.9469999999999</v>
+      </c>
+      <c r="O67">
+        <v>3582.4960000000001</v>
+      </c>
+      <c r="P67">
+        <v>1712.886</v>
+      </c>
+      <c r="Q67">
+        <v>-1015.22</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>3783.9720000000002</v>
+      </c>
+      <c r="U67">
+        <v>1254.5360000000001</v>
+      </c>
+      <c r="V67">
+        <v>82.584999999999994</v>
+      </c>
+      <c r="W67">
+        <v>-34.33</v>
+      </c>
+      <c r="X67">
+        <v>-1021.799</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>1.742</v>
+      </c>
+      <c r="AA67">
+        <v>51.213000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>103.333</v>
+      </c>
+      <c r="D68">
+        <v>737.25800000000004</v>
+      </c>
+      <c r="E68">
+        <v>487.92099999999999</v>
+      </c>
+      <c r="F68">
+        <v>285.68200000000002</v>
+      </c>
+      <c r="G68">
+        <v>2204.4479999999999</v>
+      </c>
+      <c r="H68">
+        <v>7291.9889999999996</v>
+      </c>
+      <c r="I68">
+        <v>346.41699999999997</v>
+      </c>
+      <c r="J68">
+        <v>1421.4680000000001</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>983.66200000000003</v>
+      </c>
+      <c r="O68">
+        <v>3392.1979999999999</v>
+      </c>
+      <c r="P68">
+        <v>1728.577</v>
+      </c>
+      <c r="Q68">
+        <v>-247.59100000000001</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>3899.7910000000002</v>
+      </c>
+      <c r="U68">
+        <v>1006.9450000000001</v>
+      </c>
+      <c r="V68">
+        <v>-137.04</v>
+      </c>
+      <c r="W68">
+        <v>-35.432000000000002</v>
+      </c>
+      <c r="X68">
+        <v>-60.006999999999998</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-0.28399999999999997</v>
+      </c>
+      <c r="AA68">
+        <v>103.333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>118.67</v>
+      </c>
+      <c r="D69">
+        <v>754.86599999999999</v>
+      </c>
+      <c r="E69">
+        <v>520.07600000000002</v>
+      </c>
+      <c r="F69">
+        <v>288.12400000000002</v>
+      </c>
+      <c r="G69">
+        <v>2327.3240000000001</v>
+      </c>
+      <c r="H69">
+        <v>7523.3</v>
+      </c>
+      <c r="I69">
+        <v>361.93700000000001</v>
+      </c>
+      <c r="J69">
+        <v>1407.171</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1103.0170000000001</v>
+      </c>
+      <c r="O69">
+        <v>3483.7280000000001</v>
+      </c>
+      <c r="P69">
+        <v>1789.529</v>
+      </c>
+      <c r="Q69">
+        <v>38.393999999999998</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>4039.5720000000001</v>
+      </c>
+      <c r="U69">
+        <v>1045.3389999999999</v>
+      </c>
+      <c r="V69">
+        <v>129.29900000000001</v>
+      </c>
+      <c r="W69">
+        <v>-35.442999999999998</v>
+      </c>
+      <c r="X69">
+        <v>3.5390000000000001</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="AA69">
+        <v>118.67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-218.36600000000001</v>
+      </c>
+      <c r="D70">
+        <v>857.78899999999999</v>
+      </c>
+      <c r="E70">
+        <v>534.32600000000002</v>
+      </c>
+      <c r="F70">
+        <v>309.50299999999999</v>
+      </c>
+      <c r="G70">
+        <v>2477.5630000000001</v>
+      </c>
+      <c r="H70">
+        <v>7750.7719999999999</v>
+      </c>
+      <c r="I70">
+        <v>418.53699999999998</v>
+      </c>
+      <c r="J70">
+        <v>1415.36</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1200.925</v>
+      </c>
+      <c r="O70">
+        <v>3933.076</v>
+      </c>
+      <c r="P70">
+        <v>1837.3720000000001</v>
+      </c>
+      <c r="Q70">
+        <v>91.963999999999999</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>5400</v>
+      </c>
+      <c r="T70">
+        <v>3817.6959999999999</v>
+      </c>
+      <c r="U70">
+        <v>1137.3030000000001</v>
+      </c>
+      <c r="V70">
+        <v>229.13499999999999</v>
+      </c>
+      <c r="W70">
+        <v>-35.351999999999997</v>
+      </c>
+      <c r="X70">
+        <v>-8.6010000000000009</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-4.29</v>
+      </c>
+      <c r="AA70">
+        <v>-218.36600000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>131.76</v>
+      </c>
+      <c r="D71">
+        <v>821.62900000000002</v>
+      </c>
+      <c r="E71">
+        <v>606.96799999999996</v>
+      </c>
+      <c r="F71">
+        <v>307.07900000000001</v>
+      </c>
+      <c r="G71">
+        <v>2158.7249999999999</v>
+      </c>
+      <c r="H71">
+        <v>7556.34</v>
+      </c>
+      <c r="I71">
+        <v>481.726</v>
+      </c>
+      <c r="J71">
+        <v>1436.8520000000001</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-381.15899999999999</v>
+      </c>
+      <c r="N71">
+        <v>868.86</v>
+      </c>
+      <c r="O71">
+        <v>3612.91</v>
+      </c>
+      <c r="P71">
+        <v>1476.068</v>
+      </c>
+      <c r="Q71">
+        <v>-445.11500000000001</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>3943.43</v>
+      </c>
+      <c r="U71">
+        <v>692.18799999999999</v>
+      </c>
+      <c r="V71">
+        <v>121.554</v>
+      </c>
+      <c r="W71">
+        <v>-35.381999999999998</v>
+      </c>
+      <c r="X71">
+        <v>-438.28199999999998</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-0.72499999999999998</v>
+      </c>
+      <c r="AA71">
+        <v>131.76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>302.46100000000001</v>
+      </c>
+      <c r="D72">
+        <v>853.87400000000002</v>
+      </c>
+      <c r="E72">
+        <v>571.03200000000004</v>
+      </c>
+      <c r="F72">
+        <v>312.35599999999999</v>
+      </c>
+      <c r="G72">
+        <v>2283.0700000000002</v>
+      </c>
+      <c r="H72">
+        <v>7538.3630000000003</v>
+      </c>
+      <c r="I72">
+        <v>460.44200000000001</v>
+      </c>
+      <c r="J72">
+        <v>1406.7239999999999</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1041.6610000000001</v>
+      </c>
+      <c r="O72">
+        <v>3701.0830000000001</v>
+      </c>
+      <c r="P72">
+        <v>1615.405</v>
+      </c>
+      <c r="Q72">
+        <v>215.95599999999999</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>3837.28</v>
+      </c>
+      <c r="U72">
+        <v>908.14400000000001</v>
+      </c>
+      <c r="V72">
+        <v>102.303</v>
+      </c>
+      <c r="W72">
+        <v>-37.101999999999997</v>
+      </c>
+      <c r="X72">
+        <v>-118.58499999999999</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-1.6930000000000001</v>
+      </c>
+      <c r="AA72">
+        <v>302.46100000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>129.745</v>
+      </c>
+      <c r="D73">
+        <v>777.74800000000005</v>
+      </c>
+      <c r="E73">
+        <v>550.78800000000001</v>
+      </c>
+      <c r="F73">
+        <v>285.23700000000002</v>
+      </c>
+      <c r="G73">
+        <v>2059.5770000000002</v>
+      </c>
+      <c r="H73">
+        <v>7487.1949999999997</v>
+      </c>
+      <c r="I73">
+        <v>474.22899999999998</v>
+      </c>
+      <c r="J73">
+        <v>1411.605</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1127.009</v>
+      </c>
+      <c r="O73">
+        <v>3800.9180000000001</v>
+      </c>
+      <c r="P73">
+        <v>1697.7929999999999</v>
+      </c>
+      <c r="Q73">
+        <v>-266.91800000000001</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>3686.277</v>
+      </c>
+      <c r="U73">
+        <v>641.226</v>
+      </c>
+      <c r="V73">
+        <v>153.084</v>
+      </c>
+      <c r="W73">
+        <v>-36.438000000000002</v>
+      </c>
+      <c r="X73">
+        <v>-216.06100000000001</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-3.6890000000000001</v>
+      </c>
+      <c r="AA73">
+        <v>129.745</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>129.596</v>
+      </c>
+      <c r="D74">
+        <v>921.69899999999996</v>
+      </c>
+      <c r="E74">
+        <v>605.71199999999999</v>
+      </c>
+      <c r="F74">
+        <v>330.084</v>
+      </c>
+      <c r="G74">
+        <v>1998.421</v>
+      </c>
+      <c r="H74">
+        <v>7581.674</v>
+      </c>
+      <c r="I74">
+        <v>522.51599999999996</v>
+      </c>
+      <c r="J74">
+        <v>1393.421</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1183.173</v>
+      </c>
+      <c r="O74">
+        <v>3822.5659999999998</v>
+      </c>
+      <c r="P74">
+        <v>1705.21</v>
+      </c>
+      <c r="Q74">
+        <v>-85.906000000000006</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>5900</v>
+      </c>
+      <c r="T74">
+        <v>3759.1080000000002</v>
+      </c>
+      <c r="U74">
+        <v>555.32000000000005</v>
+      </c>
+      <c r="V74">
+        <v>169.22399999999999</v>
+      </c>
+      <c r="W74">
+        <v>-35.673999999999999</v>
+      </c>
+      <c r="X74">
+        <v>-13.598000000000001</v>
+      </c>
+      <c r="Y74">
+        <v>4.4950000000000001</v>
+      </c>
+      <c r="Z74">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="AA74">
+        <v>129.596</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>133.56899999999999</v>
+      </c>
+      <c r="D75">
+        <v>832.06399999999996</v>
+      </c>
+      <c r="E75">
+        <v>603.54200000000003</v>
+      </c>
+      <c r="F75">
+        <v>283.88600000000002</v>
+      </c>
+      <c r="G75">
+        <v>1987.1759999999999</v>
+      </c>
+      <c r="H75">
+        <v>7871.0619999999999</v>
+      </c>
+      <c r="I75">
+        <v>482.43299999999999</v>
+      </c>
+      <c r="J75">
+        <v>1390.3030000000001</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1278.191</v>
+      </c>
+      <c r="O75">
+        <v>4007.0230000000001</v>
+      </c>
+      <c r="P75">
+        <v>1950.9449999999999</v>
+      </c>
+      <c r="Q75">
+        <v>-90.046000000000006</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>3864.0390000000002</v>
+      </c>
+      <c r="U75">
+        <v>465.274</v>
+      </c>
+      <c r="V75">
+        <v>54.915999999999997</v>
+      </c>
+      <c r="W75">
+        <v>-35.387</v>
+      </c>
+      <c r="X75">
+        <v>75.257000000000005</v>
+      </c>
+      <c r="Y75">
+        <v>113.65900000000001</v>
+      </c>
+      <c r="Z75">
+        <v>-1.419</v>
+      </c>
+      <c r="AA75">
+        <v>133.56899999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>154.19800000000001</v>
+      </c>
+      <c r="D76">
+        <v>885.05200000000002</v>
+      </c>
+      <c r="E76">
+        <v>624.80799999999999</v>
+      </c>
+      <c r="F76">
+        <v>326.01400000000001</v>
+      </c>
+      <c r="G76">
+        <v>2036.6369999999999</v>
+      </c>
+      <c r="H76">
+        <v>8094.4139999999998</v>
+      </c>
+      <c r="I76">
+        <v>558.83900000000006</v>
+      </c>
+      <c r="J76">
+        <v>1394.96</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1399.981</v>
+      </c>
+      <c r="O76">
+        <v>4120.0110000000004</v>
+      </c>
+      <c r="P76">
+        <v>2015.3389999999999</v>
+      </c>
+      <c r="Q76">
+        <v>-67.090999999999994</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>3974.4029999999998</v>
+      </c>
+      <c r="U76">
+        <v>398.18299999999999</v>
+      </c>
+      <c r="V76">
+        <v>144.37200000000001</v>
+      </c>
+      <c r="W76">
+        <v>-38.926000000000002</v>
+      </c>
+      <c r="X76">
+        <v>-13.29</v>
+      </c>
+      <c r="Y76">
+        <v>110.247</v>
+      </c>
+      <c r="Z76">
+        <v>-0.222</v>
+      </c>
+      <c r="AA76">
+        <v>154.19800000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>155.07</v>
+      </c>
+      <c r="D77">
+        <v>879.74699999999996</v>
+      </c>
+      <c r="E77">
+        <v>637.03700000000003</v>
+      </c>
+      <c r="F77">
+        <v>309.96699999999998</v>
+      </c>
+      <c r="G77">
+        <v>1969.752</v>
+      </c>
+      <c r="H77">
+        <v>8141.6030000000001</v>
+      </c>
+      <c r="I77">
+        <v>527.05200000000002</v>
+      </c>
+      <c r="J77">
+        <v>1378.81</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1421.2429999999999</v>
+      </c>
+      <c r="O77">
+        <v>4133.2659999999996</v>
+      </c>
+      <c r="P77">
+        <v>2063.14</v>
+      </c>
+      <c r="Q77">
+        <v>-80.36</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>4008.337</v>
+      </c>
+      <c r="U77">
+        <v>317.82299999999998</v>
+      </c>
+      <c r="V77">
+        <v>146.35</v>
+      </c>
+      <c r="W77">
+        <v>-39.008000000000003</v>
+      </c>
+      <c r="X77">
+        <v>-6.7220000000000004</v>
+      </c>
+      <c r="Y77">
+        <v>119.764</v>
+      </c>
+      <c r="Z77">
+        <v>0.249</v>
+      </c>
+      <c r="AA77">
+        <v>155.07</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>90.391000000000005</v>
+      </c>
+      <c r="D78">
+        <v>992.56399999999996</v>
+      </c>
+      <c r="E78">
+        <v>612.65099999999995</v>
+      </c>
+      <c r="F78">
+        <v>339.61099999999999</v>
+      </c>
+      <c r="G78">
+        <v>2225.1089999999999</v>
+      </c>
+      <c r="H78">
+        <v>9860.8629999999994</v>
+      </c>
+      <c r="I78">
+        <v>574.13800000000003</v>
+      </c>
+      <c r="J78">
+        <v>2804.0329999999999</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1408.9960000000001</v>
+      </c>
+      <c r="O78">
+        <v>5767.2830000000004</v>
+      </c>
+      <c r="P78">
+        <v>3188.08</v>
+      </c>
+      <c r="Q78">
+        <v>295.28699999999998</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>6000</v>
+      </c>
+      <c r="T78">
+        <v>4093.58</v>
+      </c>
+      <c r="U78">
+        <v>613.11</v>
+      </c>
+      <c r="V78">
+        <v>373.73599999999999</v>
+      </c>
+      <c r="W78">
+        <v>-38.883000000000003</v>
+      </c>
+      <c r="X78">
+        <v>987.44200000000001</v>
+      </c>
+      <c r="Y78">
+        <v>173.57400000000001</v>
+      </c>
+      <c r="Z78">
+        <v>-0.79300000000000004</v>
+      </c>
+      <c r="AA78">
+        <v>90.391000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>107.20399999999999</v>
+      </c>
+      <c r="D79">
+        <v>738.84500000000003</v>
+      </c>
+      <c r="E79">
+        <v>518.70299999999997</v>
+      </c>
+      <c r="F79">
+        <v>242.71799999999999</v>
+      </c>
+      <c r="G79">
+        <v>2155.181</v>
+      </c>
+      <c r="H79">
+        <v>9847.6380000000008</v>
+      </c>
+      <c r="I79">
+        <v>573.07500000000005</v>
+      </c>
+      <c r="J79">
+        <v>3046.5120000000002</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-151.87200000000001</v>
+      </c>
+      <c r="N79">
+        <v>1192.9259999999999</v>
+      </c>
+      <c r="O79">
+        <v>5806.1130000000003</v>
+      </c>
+      <c r="P79">
+        <v>3283.8989999999999</v>
+      </c>
+      <c r="Q79">
+        <v>-59.881999999999998</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>4041.5250000000001</v>
+      </c>
+      <c r="U79">
+        <v>553.22799999999995</v>
+      </c>
+      <c r="V79">
+        <v>155.054</v>
+      </c>
+      <c r="W79">
+        <v>-38.981999999999999</v>
+      </c>
+      <c r="X79">
+        <v>51.015999999999998</v>
+      </c>
+      <c r="Y79">
+        <v>177.946</v>
+      </c>
+      <c r="Z79">
+        <v>2.2330000000000001</v>
+      </c>
+      <c r="AA79">
+        <v>107.20399999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>85.623999999999995</v>
+      </c>
+      <c r="D80">
+        <v>764.04899999999998</v>
+      </c>
+      <c r="E80">
+        <v>517.62599999999998</v>
+      </c>
+      <c r="F80">
+        <v>233.35900000000001</v>
+      </c>
+      <c r="G80">
+        <v>2292.4090000000001</v>
+      </c>
+      <c r="H80">
+        <v>10170.253000000001</v>
+      </c>
+      <c r="I80">
+        <v>523.16</v>
+      </c>
+      <c r="J80">
+        <v>3073.5709999999999</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1420.8030000000001</v>
+      </c>
+      <c r="O80">
+        <v>5964.0919999999996</v>
+      </c>
+      <c r="P80">
+        <v>3676.4490000000001</v>
+      </c>
+      <c r="Q80">
+        <v>183.46799999999999</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>4206.1610000000001</v>
+      </c>
+      <c r="U80">
+        <v>736.69600000000003</v>
+      </c>
+      <c r="V80">
+        <v>52.863</v>
+      </c>
+      <c r="W80">
+        <v>-40.927</v>
+      </c>
+      <c r="X80">
+        <v>324.029</v>
+      </c>
+      <c r="Y80">
+        <v>174.869</v>
+      </c>
+      <c r="Z80">
+        <v>-1.2230000000000001</v>
+      </c>
+      <c r="AA80">
+        <v>85.623999999999995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>98.301000000000002</v>
+      </c>
+      <c r="D81">
+        <v>746.86800000000005</v>
+      </c>
+      <c r="E81">
+        <v>516.16600000000005</v>
+      </c>
+      <c r="F81">
+        <v>254.05600000000001</v>
+      </c>
+      <c r="G81">
+        <v>2227.0120000000002</v>
+      </c>
+      <c r="H81">
+        <v>10231.983</v>
+      </c>
+      <c r="I81">
+        <v>465.64400000000001</v>
+      </c>
+      <c r="J81">
+        <v>2881.9569999999999</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1612.739</v>
+      </c>
+      <c r="O81">
+        <v>5906.6019999999999</v>
+      </c>
+      <c r="P81">
+        <v>3678.7269999999999</v>
+      </c>
+      <c r="Q81">
+        <v>-34.622999999999998</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>4325.3810000000003</v>
+      </c>
+      <c r="U81">
+        <v>702.07299999999998</v>
+      </c>
+      <c r="V81">
+        <v>253.797</v>
+      </c>
+      <c r="W81">
+        <v>-40.927</v>
+      </c>
+      <c r="X81">
+        <v>-95.846999999999994</v>
+      </c>
+      <c r="Y81">
+        <v>174.97</v>
+      </c>
+      <c r="Z81">
+        <v>-0.58799999999999997</v>
+      </c>
+      <c r="AA81">
+        <v>98.301000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>84.635000000000005</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>879.14700000000005</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>530.83799999999997</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>265.42</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2206.1840000000002</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>10450.946</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>483.221</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>2709.9520000000002</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1801.8489999999999</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>5982.3519999999999</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>3711.12</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>44.651000000000003</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>5900</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>4468.5940000000001</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>746.72400000000005</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>337.2</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-40.981999999999999</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-101.937</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>174.19399999999999</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>9.0540000000000003</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>84.635000000000005</v>
       </c>
     </row>
